--- a/QQ_norm.xlsx
+++ b/QQ_norm.xlsx
@@ -626,7 +626,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>84.73664615096566</v>
+        <v>84.73664615096565</v>
       </c>
     </row>
     <row r="55">
@@ -811,7 +811,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>84.95170969857603</v>
+        <v>84.95170969857602</v>
       </c>
     </row>
     <row r="92">
@@ -821,7 +821,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>84.89166231516271</v>
+        <v>84.8916623151627</v>
       </c>
     </row>
     <row r="94">
@@ -831,7 +831,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>92.46451581868134</v>
+        <v>92.46451581868133</v>
       </c>
     </row>
     <row r="96">
@@ -1046,7 +1046,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>86.05014104593001</v>
+        <v>86.05014104593</v>
       </c>
     </row>
     <row r="139">
@@ -1056,7 +1056,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>86.22349417310169</v>
+        <v>86.22349417310168</v>
       </c>
     </row>
     <row r="141">
@@ -1096,7 +1096,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>81.7700102033966</v>
+        <v>81.77001020339659</v>
       </c>
     </row>
     <row r="149">
@@ -1221,7 +1221,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>90.65116213715128</v>
+        <v>90.65116213715127</v>
       </c>
     </row>
     <row r="174">
@@ -1336,12 +1336,12 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>86.51373328656698</v>
+        <v>86.51373328656697</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>95.2470207855848</v>
+        <v>95.24702078558479</v>
       </c>
     </row>
     <row r="198">
@@ -1671,7 +1671,7 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>86.70766819779468</v>
+        <v>86.70766819779467</v>
       </c>
     </row>
     <row r="264">
@@ -1691,7 +1691,7 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>91.36612931392583</v>
+        <v>91.36612931392582</v>
       </c>
     </row>
     <row r="268">
@@ -1766,12 +1766,12 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>87.65616532957093</v>
+        <v>87.65616532957092</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>96.6385611411685</v>
+        <v>96.63856114116849</v>
       </c>
     </row>
     <row r="284">
@@ -1836,12 +1836,12 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>95.68177154123463</v>
+        <v>95.68177154123462</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>93.76372701873621</v>
+        <v>93.7637270187362</v>
       </c>
     </row>
     <row r="298">
@@ -1911,7 +1911,7 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>88.73314310585595</v>
+        <v>88.73314310585594</v>
       </c>
     </row>
     <row r="312">
@@ -2036,7 +2036,7 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>94.73263365219646</v>
+        <v>94.73263365219645</v>
       </c>
     </row>
     <row r="337">
@@ -2166,7 +2166,7 @@
     </row>
     <row r="362">
       <c r="A362">
-        <v>89.14132991879365</v>
+        <v>89.14132991879364</v>
       </c>
     </row>
     <row r="363">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="369">
       <c r="A369">
-        <v>97.64962661027082</v>
+        <v>97.64962661027081</v>
       </c>
     </row>
     <row r="370">
@@ -2506,7 +2506,7 @@
     </row>
     <row r="430">
       <c r="A430">
-        <v>91.41815069378959</v>
+        <v>91.41815069378958</v>
       </c>
     </row>
     <row r="431">
@@ -2641,7 +2641,7 @@
     </row>
     <row r="457">
       <c r="A457">
-        <v>94.22511314306397</v>
+        <v>94.22511314306396</v>
       </c>
     </row>
     <row r="458">
@@ -2701,7 +2701,7 @@
     </row>
     <row r="469">
       <c r="A469">
-        <v>90.32524241127887</v>
+        <v>90.32524241127886</v>
       </c>
     </row>
     <row r="470">
@@ -2721,7 +2721,7 @@
     </row>
     <row r="473">
       <c r="A473">
-        <v>91.0872748189171</v>
+        <v>91.08727481891709</v>
       </c>
     </row>
     <row r="474">
@@ -2776,7 +2776,7 @@
     </row>
     <row r="484">
       <c r="A484">
-        <v>92.24230558557584</v>
+        <v>92.24230558557583</v>
       </c>
     </row>
     <row r="485">
@@ -3036,7 +3036,7 @@
     </row>
     <row r="536">
       <c r="A536">
-        <v>87.33258110091956</v>
+        <v>87.33258110091955</v>
       </c>
     </row>
     <row r="537">
@@ -3491,7 +3491,7 @@
     </row>
     <row r="627">
       <c r="A627">
-        <v>91.61113904327299</v>
+        <v>91.61113904327298</v>
       </c>
     </row>
     <row r="628">
@@ -3511,7 +3511,7 @@
     </row>
     <row r="631">
       <c r="A631">
-        <v>80.19623835685538</v>
+        <v>80.19623835685537</v>
       </c>
     </row>
     <row r="632">
@@ -3546,7 +3546,7 @@
     </row>
     <row r="638">
       <c r="A638">
-        <v>94.74594286671074</v>
+        <v>94.74594286671073</v>
       </c>
     </row>
     <row r="639">
@@ -3586,7 +3586,7 @@
     </row>
     <row r="646">
       <c r="A646">
-        <v>91.37468980549915</v>
+        <v>91.37468980549914</v>
       </c>
     </row>
     <row r="647">
@@ -3946,7 +3946,7 @@
     </row>
     <row r="718">
       <c r="A718">
-        <v>83.31120406749614</v>
+        <v>83.31120406749613</v>
       </c>
     </row>
     <row r="719">
@@ -4016,7 +4016,7 @@
     </row>
     <row r="732">
       <c r="A732">
-        <v>88.83762415213406</v>
+        <v>88.83762415213405</v>
       </c>
     </row>
     <row r="733">
@@ -4036,7 +4036,7 @@
     </row>
     <row r="736">
       <c r="A736">
-        <v>99.16269540970797</v>
+        <v>99.16269540970796</v>
       </c>
     </row>
     <row r="737">
@@ -4051,7 +4051,7 @@
     </row>
     <row r="739">
       <c r="A739">
-        <v>85.3752714957128</v>
+        <v>85.37527149571279</v>
       </c>
     </row>
     <row r="740">
@@ -4116,7 +4116,7 @@
     </row>
     <row r="752">
       <c r="A752">
-        <v>89.65710331267646</v>
+        <v>89.65710331267645</v>
       </c>
     </row>
     <row r="753">
@@ -4171,7 +4171,7 @@
     </row>
     <row r="763">
       <c r="A763">
-        <v>90.87332553985245</v>
+        <v>90.87332553985244</v>
       </c>
     </row>
     <row r="764">
@@ -4186,7 +4186,7 @@
     </row>
     <row r="766">
       <c r="A766">
-        <v>85.11163768463401</v>
+        <v>85.111637684634</v>
       </c>
     </row>
     <row r="767">
@@ -4401,7 +4401,7 @@
     </row>
     <row r="809">
       <c r="A809">
-        <v>89.05347487491081</v>
+        <v>89.0534748749108</v>
       </c>
     </row>
     <row r="810">
@@ -4526,7 +4526,7 @@
     </row>
     <row r="834">
       <c r="A834">
-        <v>94.01508654151373</v>
+        <v>94.01508654151372</v>
       </c>
     </row>
     <row r="835">
@@ -4636,7 +4636,7 @@
     </row>
     <row r="856">
       <c r="A856">
-        <v>88.17109117025422</v>
+        <v>88.17109117025421</v>
       </c>
     </row>
     <row r="857">
@@ -4681,7 +4681,7 @@
     </row>
     <row r="865">
       <c r="A865">
-        <v>87.67012226479658</v>
+        <v>87.67012226479657</v>
       </c>
     </row>
     <row r="866">
@@ -4691,7 +4691,7 @@
     </row>
     <row r="867">
       <c r="A867">
-        <v>91.99592169612618</v>
+        <v>91.99592169612617</v>
       </c>
     </row>
     <row r="868">
@@ -4736,7 +4736,7 @@
     </row>
     <row r="876">
       <c r="A876">
-        <v>86.51434669483101</v>
+        <v>86.514346694831</v>
       </c>
     </row>
     <row r="877">
@@ -4901,7 +4901,7 @@
     </row>
     <row r="909">
       <c r="A909">
-        <v>89.42027282761463</v>
+        <v>89.42027282761462</v>
       </c>
     </row>
     <row r="910">
@@ -4976,12 +4976,12 @@
     </row>
     <row r="924">
       <c r="A924">
-        <v>85.10066048916922</v>
+        <v>85.10066048916921</v>
       </c>
     </row>
     <row r="925">
       <c r="A925">
-        <v>90.8300445285166</v>
+        <v>90.83004452851659</v>
       </c>
     </row>
     <row r="926">
@@ -5006,7 +5006,7 @@
     </row>
     <row r="930">
       <c r="A930">
-        <v>91.99838838944928</v>
+        <v>91.99838838944927</v>
       </c>
     </row>
     <row r="931">
@@ -5016,7 +5016,7 @@
     </row>
     <row r="932">
       <c r="A932">
-        <v>91.68472154386591</v>
+        <v>91.6847215438659</v>
       </c>
     </row>
     <row r="933">
@@ -5056,7 +5056,7 @@
     </row>
     <row r="940">
       <c r="A940">
-        <v>99.37833316350285</v>
+        <v>99.37833316350284</v>
       </c>
     </row>
     <row r="941">
@@ -5371,12 +5371,12 @@
     </row>
     <row r="1003">
       <c r="A1003">
-        <v>91.63264851154131</v>
+        <v>91.6326485115413</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004">
-        <v>82.86669413042417</v>
+        <v>82.86669413042416</v>
       </c>
     </row>
     <row r="1005">
@@ -5541,7 +5541,7 @@
     </row>
     <row r="1037">
       <c r="A1037">
-        <v>91.33994869963829</v>
+        <v>91.33994869963828</v>
       </c>
     </row>
     <row r="1038">
@@ -5611,7 +5611,7 @@
     </row>
     <row r="1051">
       <c r="A1051">
-        <v>90.48018839898298</v>
+        <v>90.48018839898297</v>
       </c>
     </row>
     <row r="1052">
@@ -5676,7 +5676,7 @@
     </row>
     <row r="1064">
       <c r="A1064">
-        <v>88.66794677547937</v>
+        <v>88.66794677547936</v>
       </c>
     </row>
     <row r="1065">
@@ -5736,7 +5736,7 @@
     </row>
     <row r="1076">
       <c r="A1076">
-        <v>99.50454623231443</v>
+        <v>99.50454623231442</v>
       </c>
     </row>
     <row r="1077">
@@ -5831,7 +5831,7 @@
     </row>
     <row r="1095">
       <c r="A1095">
-        <v>93.99732843523582</v>
+        <v>93.99732843523581</v>
       </c>
     </row>
     <row r="1096">
@@ -6021,7 +6021,7 @@
     </row>
     <row r="1133">
       <c r="A1133">
-        <v>87.97036330279092</v>
+        <v>87.97036330279091</v>
       </c>
     </row>
     <row r="1134">
@@ -6091,7 +6091,7 @@
     </row>
     <row r="1147">
       <c r="A1147">
-        <v>86.55644470059274</v>
+        <v>86.55644470059273</v>
       </c>
     </row>
     <row r="1148">
@@ -6166,7 +6166,7 @@
     </row>
     <row r="1162">
       <c r="A1162">
-        <v>90.96409642102285</v>
+        <v>90.96409642102284</v>
       </c>
     </row>
     <row r="1163">
@@ -6346,7 +6346,7 @@
     </row>
     <row r="1198">
       <c r="A1198">
-        <v>87.94224121965272</v>
+        <v>87.94224121965271</v>
       </c>
     </row>
     <row r="1199">
@@ -6361,7 +6361,7 @@
     </row>
     <row r="1201">
       <c r="A1201">
-        <v>83.59989081310899</v>
+        <v>83.59989081310898</v>
       </c>
     </row>
     <row r="1202">
@@ -6446,7 +6446,7 @@
     </row>
     <row r="1218">
       <c r="A1218">
-        <v>96.67526957997301</v>
+        <v>96.675269579973</v>
       </c>
     </row>
     <row r="1219">
@@ -6486,7 +6486,7 @@
     </row>
     <row r="1226">
       <c r="A1226">
-        <v>86.36054023596248</v>
+        <v>86.36054023596247</v>
       </c>
     </row>
     <row r="1227">
@@ -6576,7 +6576,7 @@
     </row>
     <row r="1244">
       <c r="A1244">
-        <v>94.10265847550294</v>
+        <v>94.10265847550293</v>
       </c>
     </row>
     <row r="1245">
@@ -6686,7 +6686,7 @@
     </row>
     <row r="1266">
       <c r="A1266">
-        <v>76.90890108475711</v>
+        <v>76.9089010847571</v>
       </c>
     </row>
     <row r="1267">
@@ -6731,7 +6731,7 @@
     </row>
     <row r="1275">
       <c r="A1275">
-        <v>81.83516853948044</v>
+        <v>81.83516853948043</v>
       </c>
     </row>
     <row r="1276">
@@ -6806,7 +6806,7 @@
     </row>
     <row r="1290">
       <c r="A1290">
-        <v>89.29050449601184</v>
+        <v>89.29050449601183</v>
       </c>
     </row>
     <row r="1291">
@@ -6966,7 +6966,7 @@
     </row>
     <row r="1322">
       <c r="A1322">
-        <v>90.03015332062734</v>
+        <v>90.03015332062733</v>
       </c>
     </row>
     <row r="1323">
@@ -6976,7 +6976,7 @@
     </row>
     <row r="1324">
       <c r="A1324">
-        <v>87.47461166925091</v>
+        <v>87.4746116692509</v>
       </c>
     </row>
     <row r="1325">
@@ -7016,7 +7016,7 @@
     </row>
     <row r="1332">
       <c r="A1332">
-        <v>89.999869510323</v>
+        <v>89.99986951032299</v>
       </c>
     </row>
     <row r="1333">
@@ -7091,7 +7091,7 @@
     </row>
     <row r="1347">
       <c r="A1347">
-        <v>99.54779410600951</v>
+        <v>99.5477941060095</v>
       </c>
     </row>
     <row r="1348">
@@ -7101,7 +7101,7 @@
     </row>
     <row r="1349">
       <c r="A1349">
-        <v>92.7562296900575</v>
+        <v>92.75622969005749</v>
       </c>
     </row>
     <row r="1350">
@@ -7121,12 +7121,12 @@
     </row>
     <row r="1353">
       <c r="A1353">
-        <v>94.05759102103311</v>
+        <v>94.0575910210331</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354">
-        <v>86.38207388068904</v>
+        <v>86.38207388068903</v>
       </c>
     </row>
     <row r="1355">
@@ -7156,7 +7156,7 @@
     </row>
     <row r="1360">
       <c r="A1360">
-        <v>83.58063158357786</v>
+        <v>83.58063158357785</v>
       </c>
     </row>
     <row r="1361">
@@ -7201,7 +7201,7 @@
     </row>
     <row r="1369">
       <c r="A1369">
-        <v>91.86921084440589</v>
+        <v>91.86921084440588</v>
       </c>
     </row>
     <row r="1370">
@@ -7371,7 +7371,7 @@
     </row>
     <row r="1403">
       <c r="A1403">
-        <v>85.27257337616175</v>
+        <v>85.27257337616174</v>
       </c>
     </row>
     <row r="1404">
@@ -7456,7 +7456,7 @@
     </row>
     <row r="1420">
       <c r="A1420">
-        <v>93.43369978921263</v>
+        <v>93.43369978921262</v>
       </c>
     </row>
     <row r="1421">
@@ -7591,7 +7591,7 @@
     </row>
     <row r="1447">
       <c r="A1447">
-        <v>96.28803018463376</v>
+        <v>96.28803018463375</v>
       </c>
     </row>
     <row r="1448">
@@ -7816,7 +7816,7 @@
     </row>
     <row r="1492">
       <c r="A1492">
-        <v>84.93298805976716</v>
+        <v>84.93298805976715</v>
       </c>
     </row>
     <row r="1493">
@@ -7941,7 +7941,7 @@
     </row>
     <row r="1517">
       <c r="A1517">
-        <v>96.38299820805077</v>
+        <v>96.38299820805076</v>
       </c>
     </row>
     <row r="1518">
@@ -8356,7 +8356,7 @@
     </row>
     <row r="1600">
       <c r="A1600">
-        <v>87.86161581198005</v>
+        <v>87.86161581198004</v>
       </c>
     </row>
     <row r="1601">
@@ -8561,7 +8561,7 @@
     </row>
     <row r="1641">
       <c r="A1641">
-        <v>97.99541972134549</v>
+        <v>97.99541972134548</v>
       </c>
     </row>
     <row r="1642">
@@ -8601,7 +8601,7 @@
     </row>
     <row r="1649">
       <c r="A1649">
-        <v>96.24673276860654</v>
+        <v>96.24673276860653</v>
       </c>
     </row>
     <row r="1650">
@@ -8666,7 +8666,7 @@
     </row>
     <row r="1662">
       <c r="A1662">
-        <v>97.98731845672801</v>
+        <v>97.987318456728</v>
       </c>
     </row>
     <row r="1663">
@@ -8741,7 +8741,7 @@
     </row>
     <row r="1677">
       <c r="A1677">
-        <v>94.84065403703706</v>
+        <v>94.84065403703705</v>
       </c>
     </row>
     <row r="1678">
@@ -8941,7 +8941,7 @@
     </row>
     <row r="1717">
       <c r="A1717">
-        <v>94.52714094247529</v>
+        <v>94.52714094247528</v>
       </c>
     </row>
     <row r="1718">
@@ -9231,7 +9231,7 @@
     </row>
     <row r="1775">
       <c r="A1775">
-        <v>91.58565251553758</v>
+        <v>91.58565251553757</v>
       </c>
     </row>
     <row r="1776">
@@ -9341,7 +9341,7 @@
     </row>
     <row r="1797">
       <c r="A1797">
-        <v>92.10086697851421</v>
+        <v>92.1008669785142</v>
       </c>
     </row>
     <row r="1798">
@@ -9676,7 +9676,7 @@
     </row>
     <row r="1864">
       <c r="A1864">
-        <v>84.08544894293866</v>
+        <v>84.08544894293865</v>
       </c>
     </row>
     <row r="1865">
@@ -9686,7 +9686,7 @@
     </row>
     <row r="1866">
       <c r="A1866">
-        <v>92.11202657924378</v>
+        <v>92.11202657924377</v>
       </c>
     </row>
     <row r="1867">
@@ -9756,7 +9756,7 @@
     </row>
     <row r="1880">
       <c r="A1880">
-        <v>94.49630159642337</v>
+        <v>94.49630159642336</v>
       </c>
     </row>
     <row r="1881">
@@ -9866,7 +9866,7 @@
     </row>
     <row r="1902">
       <c r="A1902">
-        <v>92.81314809166661</v>
+        <v>92.8131480916666</v>
       </c>
     </row>
     <row r="1903">
@@ -9916,7 +9916,7 @@
     </row>
     <row r="1912">
       <c r="A1912">
-        <v>96.12729259913076</v>
+        <v>96.12729259913075</v>
       </c>
     </row>
     <row r="1913">
@@ -9931,7 +9931,7 @@
     </row>
     <row r="1915">
       <c r="A1915">
-        <v>88.06407973691123</v>
+        <v>88.06407973691122</v>
       </c>
     </row>
     <row r="1916">
@@ -10121,12 +10121,12 @@
     </row>
     <row r="1953">
       <c r="A1953">
-        <v>80.80616876697386</v>
+        <v>80.80616876697385</v>
       </c>
     </row>
     <row r="1954">
       <c r="A1954">
-        <v>96.78709917888556</v>
+        <v>96.78709917888555</v>
       </c>
     </row>
     <row r="1955">
@@ -10136,7 +10136,7 @@
     </row>
     <row r="1956">
       <c r="A1956">
-        <v>87.60321478719303</v>
+        <v>87.60321478719302</v>
       </c>
     </row>
     <row r="1957">
@@ -10151,7 +10151,7 @@
     </row>
     <row r="1959">
       <c r="A1959">
-        <v>94.35088975443154</v>
+        <v>94.35088975443153</v>
       </c>
     </row>
     <row r="1960">
@@ -10316,7 +10316,7 @@
     </row>
     <row r="1992">
       <c r="A1992">
-        <v>91.01666573502799</v>
+        <v>91.01666573502798</v>
       </c>
     </row>
     <row r="1993">
@@ -10406,7 +10406,7 @@
     </row>
     <row r="2010">
       <c r="A2010">
-        <v>95.18949724269776</v>
+        <v>95.18949724269775</v>
       </c>
     </row>
     <row r="2011">
@@ -10561,12 +10561,12 @@
     </row>
     <row r="2041">
       <c r="A2041">
-        <v>90.31304109631707</v>
+        <v>90.31304109631706</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042">
-        <v>89.16868761707976</v>
+        <v>89.16868761707975</v>
       </c>
     </row>
     <row r="2043">
@@ -10641,7 +10641,7 @@
     </row>
     <row r="2057">
       <c r="A2057">
-        <v>88.19926942160375</v>
+        <v>88.19926942160374</v>
       </c>
     </row>
     <row r="2058">
@@ -10666,7 +10666,7 @@
     </row>
     <row r="2062">
       <c r="A2062">
-        <v>90.73242985510206</v>
+        <v>90.73242985510205</v>
       </c>
     </row>
     <row r="2063">
@@ -10731,7 +10731,7 @@
     </row>
     <row r="2075">
       <c r="A2075">
-        <v>82.20830671442018</v>
+        <v>82.20830671442017</v>
       </c>
     </row>
     <row r="2076">
@@ -10766,7 +10766,7 @@
     </row>
     <row r="2082">
       <c r="A2082">
-        <v>92.15757649049147</v>
+        <v>92.15757649049146</v>
       </c>
     </row>
     <row r="2083">
@@ -10781,7 +10781,7 @@
     </row>
     <row r="2085">
       <c r="A2085">
-        <v>90.14279721481177</v>
+        <v>90.14279721481176</v>
       </c>
     </row>
     <row r="2086">
@@ -10841,7 +10841,7 @@
     </row>
     <row r="2097">
       <c r="A2097">
-        <v>92.48910433400062</v>
+        <v>92.48910433400061</v>
       </c>
     </row>
     <row r="2098">
@@ -11051,7 +11051,7 @@
     </row>
     <row r="2139">
       <c r="A2139">
-        <v>94.75832235901108</v>
+        <v>94.75832235901107</v>
       </c>
     </row>
     <row r="2140">
@@ -11111,7 +11111,7 @@
     </row>
     <row r="2151">
       <c r="A2151">
-        <v>92.2826898181898</v>
+        <v>92.28268981818979</v>
       </c>
     </row>
     <row r="2152">
@@ -11161,7 +11161,7 @@
     </row>
     <row r="2161">
       <c r="A2161">
-        <v>87.7154764824891</v>
+        <v>87.71547648248909</v>
       </c>
     </row>
     <row r="2162">
@@ -11326,7 +11326,7 @@
     </row>
     <row r="2194">
       <c r="A2194">
-        <v>96.78992126892283</v>
+        <v>96.78992126892282</v>
       </c>
     </row>
     <row r="2195">
@@ -11366,7 +11366,7 @@
     </row>
     <row r="2202">
       <c r="A2202">
-        <v>85.8539137217681</v>
+        <v>85.85391372176809</v>
       </c>
     </row>
     <row r="2203">
@@ -11581,7 +11581,7 @@
     </row>
     <row r="2245">
       <c r="A2245">
-        <v>92.51691178354614</v>
+        <v>92.51691178354613</v>
       </c>
     </row>
     <row r="2246">
@@ -11936,7 +11936,7 @@
     </row>
     <row r="2316">
       <c r="A2316">
-        <v>85.46814960856779</v>
+        <v>85.46814960856778</v>
       </c>
     </row>
     <row r="2317">
@@ -12376,7 +12376,7 @@
     </row>
     <row r="2404">
       <c r="A2404">
-        <v>90.43466036492814</v>
+        <v>90.43466036492813</v>
       </c>
     </row>
     <row r="2405">
@@ -12456,7 +12456,7 @@
     </row>
     <row r="2420">
       <c r="A2420">
-        <v>93.42550870600086</v>
+        <v>93.42550870600085</v>
       </c>
     </row>
     <row r="2421">
@@ -12481,7 +12481,7 @@
     </row>
     <row r="2425">
       <c r="A2425">
-        <v>93.42476187272897</v>
+        <v>93.42476187272896</v>
       </c>
     </row>
     <row r="2426">
@@ -12641,7 +12641,7 @@
     </row>
     <row r="2457">
       <c r="A2457">
-        <v>84.49651399241211</v>
+        <v>84.4965139924121</v>
       </c>
     </row>
     <row r="2458">
@@ -12656,7 +12656,7 @@
     </row>
     <row r="2460">
       <c r="A2460">
-        <v>93.61722206759878</v>
+        <v>93.61722206759877</v>
       </c>
     </row>
     <row r="2461">
@@ -12711,7 +12711,7 @@
     </row>
     <row r="2471">
       <c r="A2471">
-        <v>87.9820413642391</v>
+        <v>87.98204136423909</v>
       </c>
     </row>
     <row r="2472">
@@ -12901,12 +12901,12 @@
     </row>
     <row r="2509">
       <c r="A2509">
-        <v>95.43070543006454</v>
+        <v>95.43070543006453</v>
       </c>
     </row>
     <row r="2510">
       <c r="A2510">
-        <v>88.45982046965492</v>
+        <v>88.45982046965491</v>
       </c>
     </row>
     <row r="2511">
@@ -12976,7 +12976,7 @@
     </row>
     <row r="2524">
       <c r="A2524">
-        <v>95.88385194517466</v>
+        <v>95.88385194517465</v>
       </c>
     </row>
     <row r="2525">
@@ -12986,7 +12986,7 @@
     </row>
     <row r="2526">
       <c r="A2526">
-        <v>94.53857033981817</v>
+        <v>94.53857033981816</v>
       </c>
     </row>
     <row r="2527">
@@ -13041,7 +13041,7 @@
     </row>
     <row r="2537">
       <c r="A2537">
-        <v>90.65710864680627</v>
+        <v>90.65710864680626</v>
       </c>
     </row>
     <row r="2538">
@@ -13116,7 +13116,7 @@
     </row>
     <row r="2552">
       <c r="A2552">
-        <v>94.12623906126044</v>
+        <v>94.12623906126043</v>
       </c>
     </row>
     <row r="2553">
@@ -13191,7 +13191,7 @@
     </row>
     <row r="2567">
       <c r="A2567">
-        <v>88.40338761708127</v>
+        <v>88.40338761708126</v>
       </c>
     </row>
     <row r="2568">
@@ -13206,7 +13206,7 @@
     </row>
     <row r="2570">
       <c r="A2570">
-        <v>91.59498782795419</v>
+        <v>91.59498782795418</v>
       </c>
     </row>
     <row r="2571">
@@ -13486,7 +13486,7 @@
     </row>
     <row r="2626">
       <c r="A2626">
-        <v>80.67128411330747</v>
+        <v>80.67128411330746</v>
       </c>
     </row>
     <row r="2627">
@@ -13501,7 +13501,7 @@
     </row>
     <row r="2629">
       <c r="A2629">
-        <v>90.24314237838694</v>
+        <v>90.24314237838693</v>
       </c>
     </row>
     <row r="2630">
@@ -13551,7 +13551,7 @@
     </row>
     <row r="2639">
       <c r="A2639">
-        <v>89.76786577794771</v>
+        <v>89.7678657779477</v>
       </c>
     </row>
     <row r="2640">
@@ -13586,7 +13586,7 @@
     </row>
     <row r="2646">
       <c r="A2646">
-        <v>83.12293632415666</v>
+        <v>83.12293632415665</v>
       </c>
     </row>
     <row r="2647">
@@ -13791,7 +13791,7 @@
     </row>
     <row r="2687">
       <c r="A2687">
-        <v>75.27486825226625</v>
+        <v>75.27486825226624</v>
       </c>
     </row>
     <row r="2688">
@@ -13816,7 +13816,7 @@
     </row>
     <row r="2692">
       <c r="A2692">
-        <v>78.906334246142</v>
+        <v>78.90633424614199</v>
       </c>
     </row>
     <row r="2693">
@@ -13966,7 +13966,7 @@
     </row>
     <row r="2722">
       <c r="A2722">
-        <v>88.36055687917335</v>
+        <v>88.36055687917334</v>
       </c>
     </row>
     <row r="2723">
@@ -14081,12 +14081,12 @@
     </row>
     <row r="2745">
       <c r="A2745">
-        <v>86.90754251685434</v>
+        <v>86.90754251685433</v>
       </c>
     </row>
     <row r="2746">
       <c r="A2746">
-        <v>89.85259870154052</v>
+        <v>89.85259870154051</v>
       </c>
     </row>
     <row r="2747">
@@ -14331,7 +14331,7 @@
     </row>
     <row r="2795">
       <c r="A2795">
-        <v>91.6526950763672</v>
+        <v>91.65269507636719</v>
       </c>
     </row>
     <row r="2796">
@@ -14386,12 +14386,12 @@
     </row>
     <row r="2806">
       <c r="A2806">
-        <v>92.30985302299897</v>
+        <v>92.30985302299896</v>
       </c>
     </row>
     <row r="2807">
       <c r="A2807">
-        <v>94.1990189105202</v>
+        <v>94.19901891052019</v>
       </c>
     </row>
     <row r="2808">
@@ -14511,7 +14511,7 @@
     </row>
     <row r="2831">
       <c r="A2831">
-        <v>90.20422882593906</v>
+        <v>90.20422882593905</v>
       </c>
     </row>
     <row r="2832">
@@ -14711,7 +14711,7 @@
     </row>
     <row r="2871">
       <c r="A2871">
-        <v>88.93431802013024</v>
+        <v>88.93431802013023</v>
       </c>
     </row>
     <row r="2872">
@@ -14731,7 +14731,7 @@
     </row>
     <row r="2875">
       <c r="A2875">
-        <v>83.33933901281336</v>
+        <v>83.33933901281335</v>
       </c>
     </row>
     <row r="2876">
@@ -14786,7 +14786,7 @@
     </row>
     <row r="2886">
       <c r="A2886">
-        <v>93.2949737976052</v>
+        <v>93.29497379760519</v>
       </c>
     </row>
     <row r="2887">
@@ -14941,7 +14941,7 @@
     </row>
     <row r="2917">
       <c r="A2917">
-        <v>87.06378962031558</v>
+        <v>87.06378962031557</v>
       </c>
     </row>
     <row r="2918">
@@ -15106,7 +15106,7 @@
     </row>
     <row r="2950">
       <c r="A2950">
-        <v>89.7123272076738</v>
+        <v>89.71232720767379</v>
       </c>
     </row>
     <row r="2951">
@@ -15256,7 +15256,7 @@
     </row>
     <row r="2980">
       <c r="A2980">
-        <v>87.62756490597315</v>
+        <v>87.62756490597314</v>
       </c>
     </row>
     <row r="2981">
@@ -15281,7 +15281,7 @@
     </row>
     <row r="2985">
       <c r="A2985">
-        <v>89.3291784369677</v>
+        <v>89.32917843696769</v>
       </c>
     </row>
     <row r="2986">
@@ -15476,7 +15476,7 @@
     </row>
     <row r="3024">
       <c r="A3024">
-        <v>95.3405071689045</v>
+        <v>95.34050716890449</v>
       </c>
     </row>
     <row r="3025">
@@ -15496,7 +15496,7 @@
     </row>
     <row r="3028">
       <c r="A3028">
-        <v>78.32826939305753</v>
+        <v>78.32826939305752</v>
       </c>
     </row>
     <row r="3029">
@@ -15676,7 +15676,7 @@
     </row>
     <row r="3064">
       <c r="A3064">
-        <v>82.29887007403247</v>
+        <v>82.29887007403246</v>
       </c>
     </row>
     <row r="3065">
@@ -15726,7 +15726,7 @@
     </row>
     <row r="3074">
       <c r="A3074">
-        <v>93.9296842978921</v>
+        <v>93.92968429789209</v>
       </c>
     </row>
     <row r="3075">
@@ -15831,7 +15831,7 @@
     </row>
     <row r="3095">
       <c r="A3095">
-        <v>93.34857498975723</v>
+        <v>93.34857498975722</v>
       </c>
     </row>
     <row r="3096">
@@ -15876,17 +15876,17 @@
     </row>
     <row r="3104">
       <c r="A3104">
-        <v>87.56247270071764</v>
+        <v>87.56247270071763</v>
       </c>
     </row>
     <row r="3105">
       <c r="A3105">
-        <v>91.62317472554364</v>
+        <v>91.62317472554363</v>
       </c>
     </row>
     <row r="3106">
       <c r="A3106">
-        <v>89.17663612273312</v>
+        <v>89.17663612273311</v>
       </c>
     </row>
     <row r="3107">
@@ -15966,7 +15966,7 @@
     </row>
     <row r="3122">
       <c r="A3122">
-        <v>90.11198996560592</v>
+        <v>90.11198996560591</v>
       </c>
     </row>
     <row r="3123">
@@ -16236,7 +16236,7 @@
     </row>
     <row r="3176">
       <c r="A3176">
-        <v>90.08000566989954</v>
+        <v>90.08000566989953</v>
       </c>
     </row>
     <row r="3177">
@@ -16276,7 +16276,7 @@
     </row>
     <row r="3184">
       <c r="A3184">
-        <v>82.59990906683233</v>
+        <v>82.59990906683232</v>
       </c>
     </row>
     <row r="3185">
@@ -16351,7 +16351,7 @@
     </row>
     <row r="3199">
       <c r="A3199">
-        <v>96.78058606103186</v>
+        <v>96.78058606103185</v>
       </c>
     </row>
     <row r="3200">
@@ -16516,7 +16516,7 @@
     </row>
     <row r="3232">
       <c r="A3232">
-        <v>87.6165149184525</v>
+        <v>87.61651491845249</v>
       </c>
     </row>
     <row r="3233">
@@ -16581,7 +16581,7 @@
     </row>
     <row r="3245">
       <c r="A3245">
-        <v>87.34574812487026</v>
+        <v>87.34574812487025</v>
       </c>
     </row>
     <row r="3246">
@@ -16651,7 +16651,7 @@
     </row>
     <row r="3259">
       <c r="A3259">
-        <v>95.18155173931334</v>
+        <v>95.18155173931333</v>
       </c>
     </row>
     <row r="3260">
@@ -16866,7 +16866,7 @@
     </row>
     <row r="3302">
       <c r="A3302">
-        <v>96.62532382300825</v>
+        <v>96.62532382300824</v>
       </c>
     </row>
     <row r="3303">
@@ -16916,7 +16916,7 @@
     </row>
     <row r="3312">
       <c r="A3312">
-        <v>87.69861383211512</v>
+        <v>87.69861383211511</v>
       </c>
     </row>
     <row r="3313">
@@ -17026,7 +17026,7 @@
     </row>
     <row r="3334">
       <c r="A3334">
-        <v>89.0292132121831</v>
+        <v>89.02921321218309</v>
       </c>
     </row>
     <row r="3335">
@@ -17251,7 +17251,7 @@
     </row>
     <row r="3379">
       <c r="A3379">
-        <v>93.42360223309557</v>
+        <v>93.42360223309556</v>
       </c>
     </row>
     <row r="3380">
@@ -17401,7 +17401,7 @@
     </row>
     <row r="3409">
       <c r="A3409">
-        <v>97.87838990277624</v>
+        <v>97.87838990277623</v>
       </c>
     </row>
     <row r="3410">
@@ -17561,7 +17561,7 @@
     </row>
     <row r="3441">
       <c r="A3441">
-        <v>99.31581354241529</v>
+        <v>99.31581354241528</v>
       </c>
     </row>
     <row r="3442">
@@ -17591,7 +17591,7 @@
     </row>
     <row r="3447">
       <c r="A3447">
-        <v>88.64047627746813</v>
+        <v>88.64047627746812</v>
       </c>
     </row>
     <row r="3448">
@@ -17781,7 +17781,7 @@
     </row>
     <row r="3485">
       <c r="A3485">
-        <v>97.2738529761096</v>
+        <v>97.27385297610959</v>
       </c>
     </row>
     <row r="3486">
@@ -17806,7 +17806,7 @@
     </row>
     <row r="3490">
       <c r="A3490">
-        <v>94.28649089214459</v>
+        <v>94.28649089214458</v>
       </c>
     </row>
     <row r="3491">
@@ -17916,7 +17916,7 @@
     </row>
     <row r="3512">
       <c r="A3512">
-        <v>89.16639109179207</v>
+        <v>89.16639109179206</v>
       </c>
     </row>
     <row r="3513">
@@ -17936,7 +17936,7 @@
     </row>
     <row r="3516">
       <c r="A3516">
-        <v>93.28701694684357</v>
+        <v>93.28701694684356</v>
       </c>
     </row>
     <row r="3517">
@@ -18061,7 +18061,7 @@
     </row>
     <row r="3541">
       <c r="A3541">
-        <v>80.22727702148652</v>
+        <v>80.22727702148651</v>
       </c>
     </row>
     <row r="3542">
@@ -18461,7 +18461,7 @@
     </row>
     <row r="3621">
       <c r="A3621">
-        <v>86.49420948328555</v>
+        <v>86.49420948328554</v>
       </c>
     </row>
     <row r="3622">
@@ -18481,7 +18481,7 @@
     </row>
     <row r="3625">
       <c r="A3625">
-        <v>86.76280359541777</v>
+        <v>86.76280359541776</v>
       </c>
     </row>
     <row r="3626">
@@ -18656,7 +18656,7 @@
     </row>
     <row r="3660">
       <c r="A3660">
-        <v>90.64527878065987</v>
+        <v>90.64527878065986</v>
       </c>
     </row>
     <row r="3661">
@@ -18696,7 +18696,7 @@
     </row>
     <row r="3668">
       <c r="A3668">
-        <v>91.32725706111764</v>
+        <v>91.32725706111763</v>
       </c>
     </row>
     <row r="3669">
@@ -18896,7 +18896,7 @@
     </row>
     <row r="3708">
       <c r="A3708">
-        <v>76.79121634458898</v>
+        <v>76.79121634458897</v>
       </c>
     </row>
     <row r="3709">
@@ -18911,7 +18911,7 @@
     </row>
     <row r="3711">
       <c r="A3711">
-        <v>94.90851416796176</v>
+        <v>94.90851416796175</v>
       </c>
     </row>
     <row r="3712">
@@ -18951,7 +18951,7 @@
     </row>
     <row r="3719">
       <c r="A3719">
-        <v>93.51406774215288</v>
+        <v>93.51406774215287</v>
       </c>
     </row>
     <row r="3720">
@@ -18966,7 +18966,7 @@
     </row>
     <row r="3722">
       <c r="A3722">
-        <v>92.99874685798064</v>
+        <v>92.99874685798063</v>
       </c>
     </row>
     <row r="3723">
@@ -19016,7 +19016,7 @@
     </row>
     <row r="3732">
       <c r="A3732">
-        <v>85.54362010935815</v>
+        <v>85.54362010935814</v>
       </c>
     </row>
     <row r="3733">
@@ -19051,7 +19051,7 @@
     </row>
     <row r="3739">
       <c r="A3739">
-        <v>93.38225948796728</v>
+        <v>93.38225948796727</v>
       </c>
     </row>
     <row r="3740">
@@ -19111,7 +19111,7 @@
     </row>
     <row r="3751">
       <c r="A3751">
-        <v>87.3602034591619</v>
+        <v>87.36020345916189</v>
       </c>
     </row>
     <row r="3752">
@@ -19121,7 +19121,7 @@
     </row>
     <row r="3753">
       <c r="A3753">
-        <v>92.15843939555433</v>
+        <v>92.15843939555432</v>
       </c>
     </row>
     <row r="3754">
@@ -19241,7 +19241,7 @@
     </row>
     <row r="3777">
       <c r="A3777">
-        <v>91.42585327017027</v>
+        <v>91.42585327017026</v>
       </c>
     </row>
     <row r="3778">
@@ -19271,7 +19271,7 @@
     </row>
     <row r="3783">
       <c r="A3783">
-        <v>90.22536908368456</v>
+        <v>90.22536908368455</v>
       </c>
     </row>
     <row r="3784">
@@ -19281,12 +19281,12 @@
     </row>
     <row r="3785">
       <c r="A3785">
-        <v>80.59361831204051</v>
+        <v>80.5936183120405</v>
       </c>
     </row>
     <row r="3786">
       <c r="A3786">
-        <v>87.83745848120609</v>
+        <v>87.83745848120608</v>
       </c>
     </row>
     <row r="3787">
@@ -19356,12 +19356,12 @@
     </row>
     <row r="3800">
       <c r="A3800">
-        <v>92.98292638339098</v>
+        <v>92.98292638339097</v>
       </c>
     </row>
     <row r="3801">
       <c r="A3801">
-        <v>92.53291972692198</v>
+        <v>92.53291972692197</v>
       </c>
     </row>
     <row r="3802">
@@ -19371,7 +19371,7 @@
     </row>
     <row r="3803">
       <c r="A3803">
-        <v>95.68848119921798</v>
+        <v>95.68848119921797</v>
       </c>
     </row>
     <row r="3804">
@@ -19381,12 +19381,12 @@
     </row>
     <row r="3805">
       <c r="A3805">
-        <v>88.27280227570896</v>
+        <v>88.27280227570895</v>
       </c>
     </row>
     <row r="3806">
       <c r="A3806">
-        <v>91.81909688606442</v>
+        <v>91.81909688606441</v>
       </c>
     </row>
     <row r="3807">
@@ -19756,7 +19756,7 @@
     </row>
     <row r="3880">
       <c r="A3880">
-        <v>83.67628059232141</v>
+        <v>83.6762805923214</v>
       </c>
     </row>
     <row r="3881">
@@ -19896,7 +19896,7 @@
     </row>
     <row r="3908">
       <c r="A3908">
-        <v>90.14328064284536</v>
+        <v>90.14328064284535</v>
       </c>
     </row>
     <row r="3909">
@@ -19916,7 +19916,7 @@
     </row>
     <row r="3912">
       <c r="A3912">
-        <v>90.86515904057868</v>
+        <v>90.86515904057867</v>
       </c>
     </row>
     <row r="3913">
@@ -19926,7 +19926,7 @@
     </row>
     <row r="3914">
       <c r="A3914">
-        <v>100.7912978421628</v>
+        <v>100.7912978421627</v>
       </c>
     </row>
     <row r="3915">
@@ -19941,7 +19941,7 @@
     </row>
     <row r="3917">
       <c r="A3917">
-        <v>94.58537959950292</v>
+        <v>94.58537959950291</v>
       </c>
     </row>
     <row r="3918">
@@ -20086,7 +20086,7 @@
     </row>
     <row r="3946">
       <c r="A3946">
-        <v>95.36579035149588</v>
+        <v>95.36579035149587</v>
       </c>
     </row>
     <row r="3947">
@@ -20121,7 +20121,7 @@
     </row>
     <row r="3953">
       <c r="A3953">
-        <v>86.41320379599812</v>
+        <v>86.41320379599811</v>
       </c>
     </row>
     <row r="3954">
@@ -20201,7 +20201,7 @@
     </row>
     <row r="3969">
       <c r="A3969">
-        <v>90.81112469865632</v>
+        <v>90.81112469865631</v>
       </c>
     </row>
     <row r="3970">
@@ -20211,7 +20211,7 @@
     </row>
     <row r="3971">
       <c r="A3971">
-        <v>80.71095043467597</v>
+        <v>80.71095043467596</v>
       </c>
     </row>
     <row r="3972">
@@ -20471,7 +20471,7 @@
     </row>
     <row r="4023">
       <c r="A4023">
-        <v>88.23544702732085</v>
+        <v>88.23544702732084</v>
       </c>
     </row>
     <row r="4024">
@@ -20546,7 +20546,7 @@
     </row>
     <row r="4038">
       <c r="A4038">
-        <v>90.61419938455551</v>
+        <v>90.6141993845555</v>
       </c>
     </row>
     <row r="4039">
@@ -20621,7 +20621,7 @@
     </row>
     <row r="4053">
       <c r="A4053">
-        <v>96.02258859752944</v>
+        <v>96.02258859752943</v>
       </c>
     </row>
     <row r="4054">
@@ -20746,7 +20746,7 @@
     </row>
     <row r="4078">
       <c r="A4078">
-        <v>98.10277827088351</v>
+        <v>98.1027782708835</v>
       </c>
     </row>
     <row r="4079">
@@ -20821,7 +20821,7 @@
     </row>
     <row r="4093">
       <c r="A4093">
-        <v>88.09415143400688</v>
+        <v>88.09415143400687</v>
       </c>
     </row>
     <row r="4094">
@@ -20836,7 +20836,7 @@
     </row>
     <row r="4096">
       <c r="A4096">
-        <v>85.20599020746406</v>
+        <v>85.20599020746405</v>
       </c>
     </row>
     <row r="4097">
@@ -20896,7 +20896,7 @@
     </row>
     <row r="4108">
       <c r="A4108">
-        <v>105.9213833230185</v>
+        <v>105.9213833230184</v>
       </c>
     </row>
     <row r="4109">
@@ -20996,7 +20996,7 @@
     </row>
     <row r="4128">
       <c r="A4128">
-        <v>85.18491153385367</v>
+        <v>85.18491153385366</v>
       </c>
     </row>
     <row r="4129">
@@ -21441,7 +21441,7 @@
     </row>
     <row r="4217">
       <c r="A4217">
-        <v>93.9037988546874</v>
+        <v>93.90379885468739</v>
       </c>
     </row>
     <row r="4218">
@@ -21501,7 +21501,7 @@
     </row>
     <row r="4229">
       <c r="A4229">
-        <v>96.39296833098283</v>
+        <v>96.39296833098282</v>
       </c>
     </row>
     <row r="4230">
@@ -21536,7 +21536,7 @@
     </row>
     <row r="4236">
       <c r="A4236">
-        <v>89.40413488395888</v>
+        <v>89.40413488395887</v>
       </c>
     </row>
     <row r="4237">
@@ -21826,7 +21826,7 @@
     </row>
     <row r="4294">
       <c r="A4294">
-        <v>85.11157445863906</v>
+        <v>85.11157445863905</v>
       </c>
     </row>
     <row r="4295">
@@ -22071,7 +22071,7 @@
     </row>
     <row r="4343">
       <c r="A4343">
-        <v>94.39694886960236</v>
+        <v>94.39694886960235</v>
       </c>
     </row>
     <row r="4344">
@@ -22226,7 +22226,7 @@
     </row>
     <row r="4374">
       <c r="A4374">
-        <v>87.86128786231726</v>
+        <v>87.86128786231725</v>
       </c>
     </row>
     <row r="4375">
@@ -22396,7 +22396,7 @@
     </row>
     <row r="4408">
       <c r="A4408">
-        <v>92.35057688729764</v>
+        <v>92.35057688729763</v>
       </c>
     </row>
     <row r="4409">
@@ -22526,7 +22526,7 @@
     </row>
     <row r="4434">
       <c r="A4434">
-        <v>85.10744327269318</v>
+        <v>85.10744327269317</v>
       </c>
     </row>
     <row r="4435">
@@ -22786,7 +22786,7 @@
     </row>
     <row r="4486">
       <c r="A4486">
-        <v>94.88372849536791</v>
+        <v>94.8837284953679</v>
       </c>
     </row>
     <row r="4487">
@@ -22801,7 +22801,7 @@
     </row>
     <row r="4489">
       <c r="A4489">
-        <v>91.04904091782395</v>
+        <v>91.04904091782394</v>
       </c>
     </row>
     <row r="4490">
@@ -22846,7 +22846,7 @@
     </row>
     <row r="4498">
       <c r="A4498">
-        <v>86.81679857804699</v>
+        <v>86.81679857804698</v>
       </c>
     </row>
     <row r="4499">
@@ -23051,7 +23051,7 @@
     </row>
     <row r="4539">
       <c r="A4539">
-        <v>94.4625826846486</v>
+        <v>94.46258268464859</v>
       </c>
     </row>
     <row r="4540">
@@ -23106,7 +23106,7 @@
     </row>
     <row r="4550">
       <c r="A4550">
-        <v>83.36358644515345</v>
+        <v>83.36358644515344</v>
       </c>
     </row>
     <row r="4551">
@@ -23211,7 +23211,7 @@
     </row>
     <row r="4571">
       <c r="A4571">
-        <v>92.42418875186228</v>
+        <v>92.42418875186227</v>
       </c>
     </row>
     <row r="4572">
@@ -23221,7 +23221,7 @@
     </row>
     <row r="4573">
       <c r="A4573">
-        <v>95.1950377016255</v>
+        <v>95.19503770162549</v>
       </c>
     </row>
     <row r="4574">
@@ -23276,7 +23276,7 @@
     </row>
     <row r="4584">
       <c r="A4584">
-        <v>97.19462524043478</v>
+        <v>97.19462524043477</v>
       </c>
     </row>
     <row r="4585">
@@ -23306,7 +23306,7 @@
     </row>
     <row r="4590">
       <c r="A4590">
-        <v>80.83796013362471</v>
+        <v>80.8379601336247</v>
       </c>
     </row>
     <row r="4591">
@@ -23356,7 +23356,7 @@
     </row>
     <row r="4600">
       <c r="A4600">
-        <v>86.77052856509936</v>
+        <v>86.77052856509935</v>
       </c>
     </row>
     <row r="4601">
@@ -23436,7 +23436,7 @@
     </row>
     <row r="4616">
       <c r="A4616">
-        <v>84.2742261449278</v>
+        <v>84.27422614492779</v>
       </c>
     </row>
     <row r="4617">
@@ -23456,7 +23456,7 @@
     </row>
     <row r="4620">
       <c r="A4620">
-        <v>91.44901113089046</v>
+        <v>91.44901113089045</v>
       </c>
     </row>
     <row r="4621">
@@ -23466,7 +23466,7 @@
     </row>
     <row r="4622">
       <c r="A4622">
-        <v>95.31373730930793</v>
+        <v>95.31373730930792</v>
       </c>
     </row>
     <row r="4623">
@@ -23591,7 +23591,7 @@
     </row>
     <row r="4647">
       <c r="A4647">
-        <v>86.31486149500528</v>
+        <v>86.31486149500527</v>
       </c>
     </row>
     <row r="4648">
@@ -23646,7 +23646,7 @@
     </row>
     <row r="4658">
       <c r="A4658">
-        <v>82.39323440219386</v>
+        <v>82.39323440219385</v>
       </c>
     </row>
     <row r="4659">
@@ -23686,7 +23686,7 @@
     </row>
     <row r="4666">
       <c r="A4666">
-        <v>90.69429794372987</v>
+        <v>90.69429794372986</v>
       </c>
     </row>
     <row r="4667">
@@ -23781,7 +23781,7 @@
     </row>
     <row r="4685">
       <c r="A4685">
-        <v>97.93659495262232</v>
+        <v>97.93659495262231</v>
       </c>
     </row>
     <row r="4686">
@@ -23866,7 +23866,7 @@
     </row>
     <row r="4702">
       <c r="A4702">
-        <v>86.53839788910941</v>
+        <v>86.5383978891094</v>
       </c>
     </row>
     <row r="4703">
@@ -23961,7 +23961,7 @@
     </row>
     <row r="4721">
       <c r="A4721">
-        <v>87.5004989906079</v>
+        <v>87.50049899060789</v>
       </c>
     </row>
     <row r="4722">
@@ -24021,7 +24021,7 @@
     </row>
     <row r="4733">
       <c r="A4733">
-        <v>89.45766197085843</v>
+        <v>89.45766197085842</v>
       </c>
     </row>
     <row r="4734">
@@ -24051,7 +24051,7 @@
     </row>
     <row r="4739">
       <c r="A4739">
-        <v>94.88443792616693</v>
+        <v>94.88443792616692</v>
       </c>
     </row>
     <row r="4740">
@@ -24101,7 +24101,7 @@
     </row>
     <row r="4749">
       <c r="A4749">
-        <v>90.62757339614682</v>
+        <v>90.62757339614681</v>
       </c>
     </row>
     <row r="4750">
@@ -24376,7 +24376,7 @@
     </row>
     <row r="4804">
       <c r="A4804">
-        <v>87.05741049738136</v>
+        <v>87.05741049738135</v>
       </c>
     </row>
     <row r="4805">
@@ -24426,7 +24426,7 @@
     </row>
     <row r="4814">
       <c r="A4814">
-        <v>91.08582574682932</v>
+        <v>91.08582574682931</v>
       </c>
     </row>
     <row r="4815">
@@ -24661,7 +24661,7 @@
     </row>
     <row r="4861">
       <c r="A4861">
-        <v>95.17245195798427</v>
+        <v>95.17245195798426</v>
       </c>
     </row>
     <row r="4862">
@@ -24781,7 +24781,7 @@
     </row>
     <row r="4885">
       <c r="A4885">
-        <v>89.83879067668939</v>
+        <v>89.83879067668938</v>
       </c>
     </row>
     <row r="4886">
@@ -24801,7 +24801,7 @@
     </row>
     <row r="4889">
       <c r="A4889">
-        <v>90.23231867440092</v>
+        <v>90.23231867440091</v>
       </c>
     </row>
     <row r="4890">
@@ -24816,7 +24816,7 @@
     </row>
     <row r="4892">
       <c r="A4892">
-        <v>94.76582290617589</v>
+        <v>94.76582290617588</v>
       </c>
     </row>
     <row r="4893">
@@ -24876,7 +24876,7 @@
     </row>
     <row r="4904">
       <c r="A4904">
-        <v>101.5240815102353</v>
+        <v>101.5240815102352</v>
       </c>
     </row>
     <row r="4905">
@@ -24906,7 +24906,7 @@
     </row>
     <row r="4910">
       <c r="A4910">
-        <v>93.07667955545981</v>
+        <v>93.0766795554598</v>
       </c>
     </row>
     <row r="4911">
@@ -24951,7 +24951,7 @@
     </row>
     <row r="4919">
       <c r="A4919">
-        <v>87.29190910856885</v>
+        <v>87.29190910856884</v>
       </c>
     </row>
     <row r="4920">
@@ -25116,7 +25116,7 @@
     </row>
     <row r="4952">
       <c r="A4952">
-        <v>95.32279466008986</v>
+        <v>95.32279466008985</v>
       </c>
     </row>
     <row r="4953">
@@ -25131,7 +25131,7 @@
     </row>
     <row r="4955">
       <c r="A4955">
-        <v>78.63410243461046</v>
+        <v>78.63410243461045</v>
       </c>
     </row>
     <row r="4956">
@@ -25146,7 +25146,7 @@
     </row>
     <row r="4958">
       <c r="A4958">
-        <v>87.05776541619125</v>
+        <v>87.05776541619124</v>
       </c>
     </row>
     <row r="4959">
@@ -25211,7 +25211,7 @@
     </row>
     <row r="4971">
       <c r="A4971">
-        <v>85.85015330491432</v>
+        <v>85.85015330491431</v>
       </c>
     </row>
     <row r="4972">
@@ -25716,7 +25716,7 @@
     </row>
     <row r="5072">
       <c r="A5072">
-        <v>89.24045356662973</v>
+        <v>89.24045356662972</v>
       </c>
     </row>
     <row r="5073">
@@ -25931,7 +25931,7 @@
     </row>
     <row r="5115">
       <c r="A5115">
-        <v>92.07914283554158</v>
+        <v>92.07914283554157</v>
       </c>
     </row>
     <row r="5116">
@@ -26201,7 +26201,7 @@
     </row>
     <row r="5169">
       <c r="A5169">
-        <v>85.00571762255864</v>
+        <v>85.00571762255863</v>
       </c>
     </row>
     <row r="5170">
@@ -26251,7 +26251,7 @@
     </row>
     <row r="5179">
       <c r="A5179">
-        <v>100.8820970469314</v>
+        <v>100.8820970469313</v>
       </c>
     </row>
     <row r="5180">
@@ -26286,7 +26286,7 @@
     </row>
     <row r="5186">
       <c r="A5186">
-        <v>83.69425854295317</v>
+        <v>83.69425854295316</v>
       </c>
     </row>
     <row r="5187">
@@ -26341,7 +26341,7 @@
     </row>
     <row r="5197">
       <c r="A5197">
-        <v>95.98885305746524</v>
+        <v>95.98885305746523</v>
       </c>
     </row>
     <row r="5198">
@@ -26426,7 +26426,7 @@
     </row>
     <row r="5214">
       <c r="A5214">
-        <v>91.88758529871456</v>
+        <v>91.88758529871455</v>
       </c>
     </row>
     <row r="5215">
@@ -26441,7 +26441,7 @@
     </row>
     <row r="5217">
       <c r="A5217">
-        <v>94.69190965939382</v>
+        <v>94.69190965939381</v>
       </c>
     </row>
     <row r="5218">
@@ -26606,7 +26606,7 @@
     </row>
     <row r="5250">
       <c r="A5250">
-        <v>93.84289692062284</v>
+        <v>93.84289692062283</v>
       </c>
     </row>
     <row r="5251">
@@ -26626,7 +26626,7 @@
     </row>
     <row r="5254">
       <c r="A5254">
-        <v>97.45320908728228</v>
+        <v>97.45320908728227</v>
       </c>
     </row>
     <row r="5255">
@@ -26766,7 +26766,7 @@
     </row>
     <row r="5282">
       <c r="A5282">
-        <v>99.1685786808491</v>
+        <v>99.16857868084909</v>
       </c>
     </row>
     <row r="5283">
@@ -26786,7 +26786,7 @@
     </row>
     <row r="5286">
       <c r="A5286">
-        <v>91.3413314030901</v>
+        <v>91.34133140309009</v>
       </c>
     </row>
     <row r="5287">
@@ -26966,7 +26966,7 @@
     </row>
     <row r="5322">
       <c r="A5322">
-        <v>84.31325290663934</v>
+        <v>84.31325290663933</v>
       </c>
     </row>
     <row r="5323">
@@ -26976,7 +26976,7 @@
     </row>
     <row r="5324">
       <c r="A5324">
-        <v>87.24387001482504</v>
+        <v>87.24387001482503</v>
       </c>
     </row>
     <row r="5325">
@@ -27121,7 +27121,7 @@
     </row>
     <row r="5353">
       <c r="A5353">
-        <v>84.84674345898984</v>
+        <v>84.84674345898983</v>
       </c>
     </row>
     <row r="5354">
@@ -27131,7 +27131,7 @@
     </row>
     <row r="5355">
       <c r="A5355">
-        <v>94.29733364934207</v>
+        <v>94.29733364934206</v>
       </c>
     </row>
     <row r="5356">
@@ -27231,7 +27231,7 @@
     </row>
     <row r="5375">
       <c r="A5375">
-        <v>89.80157630702279</v>
+        <v>89.80157630702278</v>
       </c>
     </row>
     <row r="5376">
@@ -27376,7 +27376,7 @@
     </row>
     <row r="5404">
       <c r="A5404">
-        <v>88.87465449511169</v>
+        <v>88.87465449511168</v>
       </c>
     </row>
     <row r="5405">
@@ -27416,7 +27416,7 @@
     </row>
     <row r="5412">
       <c r="A5412">
-        <v>88.45459279263604</v>
+        <v>88.45459279263603</v>
       </c>
     </row>
     <row r="5413">
@@ -27516,7 +27516,7 @@
     </row>
     <row r="5432">
       <c r="A5432">
-        <v>81.7131210968488</v>
+        <v>81.71312109684879</v>
       </c>
     </row>
     <row r="5433">
@@ -27621,7 +27621,7 @@
     </row>
     <row r="5453">
       <c r="A5453">
-        <v>87.98462927865892</v>
+        <v>87.98462927865891</v>
       </c>
     </row>
     <row r="5454">
@@ -27661,7 +27661,7 @@
     </row>
     <row r="5461">
       <c r="A5461">
-        <v>90.58320875943196</v>
+        <v>90.58320875943195</v>
       </c>
     </row>
     <row r="5462">
@@ -27671,7 +27671,7 @@
     </row>
     <row r="5463">
       <c r="A5463">
-        <v>92.99384823071164</v>
+        <v>92.99384823071163</v>
       </c>
     </row>
     <row r="5464">
@@ -27851,7 +27851,7 @@
     </row>
     <row r="5499">
       <c r="A5499">
-        <v>95.67600073157657</v>
+        <v>95.67600073157656</v>
       </c>
     </row>
     <row r="5500">
@@ -27871,7 +27871,7 @@
     </row>
     <row r="5503">
       <c r="A5503">
-        <v>87.43382963389819</v>
+        <v>87.43382963389818</v>
       </c>
     </row>
     <row r="5504">
@@ -27896,7 +27896,7 @@
     </row>
     <row r="5508">
       <c r="A5508">
-        <v>91.71556794708386</v>
+        <v>91.71556794708385</v>
       </c>
     </row>
     <row r="5509">
@@ -27911,7 +27911,7 @@
     </row>
     <row r="5511">
       <c r="A5511">
-        <v>91.63766658644929</v>
+        <v>91.63766658644928</v>
       </c>
     </row>
     <row r="5512">
@@ -27951,7 +27951,7 @@
     </row>
     <row r="5519">
       <c r="A5519">
-        <v>89.75243651720327</v>
+        <v>89.75243651720326</v>
       </c>
     </row>
     <row r="5520">
@@ -27971,7 +27971,7 @@
     </row>
     <row r="5523">
       <c r="A5523">
-        <v>87.69052447528569</v>
+        <v>87.69052447528568</v>
       </c>
     </row>
     <row r="5524">
@@ -28326,7 +28326,7 @@
     </row>
     <row r="5594">
       <c r="A5594">
-        <v>92.8314305661301</v>
+        <v>92.83143056613009</v>
       </c>
     </row>
     <row r="5595">
@@ -28356,7 +28356,7 @@
     </row>
     <row r="5600">
       <c r="A5600">
-        <v>93.52739495005388</v>
+        <v>93.52739495005387</v>
       </c>
     </row>
     <row r="5601">
@@ -28391,7 +28391,7 @@
     </row>
     <row r="5607">
       <c r="A5607">
-        <v>91.09595814552471</v>
+        <v>91.0959581455247</v>
       </c>
     </row>
     <row r="5608">
@@ -28436,7 +28436,7 @@
     </row>
     <row r="5616">
       <c r="A5616">
-        <v>88.6531792554507</v>
+        <v>88.65317925545069</v>
       </c>
     </row>
     <row r="5617">
@@ -28451,7 +28451,7 @@
     </row>
     <row r="5619">
       <c r="A5619">
-        <v>89.12948232312346</v>
+        <v>89.12948232312345</v>
       </c>
     </row>
     <row r="5620">
@@ -28626,7 +28626,7 @@
     </row>
     <row r="5654">
       <c r="A5654">
-        <v>97.10543028771095</v>
+        <v>97.10543028771094</v>
       </c>
     </row>
     <row r="5655">
@@ -29076,7 +29076,7 @@
     </row>
     <row r="5744">
       <c r="A5744">
-        <v>90.25565535580275</v>
+        <v>90.25565535580274</v>
       </c>
     </row>
     <row r="5745">
@@ -29146,7 +29146,7 @@
     </row>
     <row r="5758">
       <c r="A5758">
-        <v>91.93207112745751</v>
+        <v>91.9320711274575</v>
       </c>
     </row>
     <row r="5759">
@@ -29366,7 +29366,7 @@
     </row>
     <row r="5802">
       <c r="A5802">
-        <v>98.81296708745794</v>
+        <v>98.81296708745793</v>
       </c>
     </row>
     <row r="5803">
@@ -29401,7 +29401,7 @@
     </row>
     <row r="5809">
       <c r="A5809">
-        <v>90.65557533118295</v>
+        <v>90.65557533118294</v>
       </c>
     </row>
     <row r="5810">
@@ -29461,7 +29461,7 @@
     </row>
     <row r="5821">
       <c r="A5821">
-        <v>97.01977754728974</v>
+        <v>97.01977754728973</v>
       </c>
     </row>
     <row r="5822">
@@ -29576,7 +29576,7 @@
     </row>
     <row r="5844">
       <c r="A5844">
-        <v>98.09280987585314</v>
+        <v>98.09280987585313</v>
       </c>
     </row>
     <row r="5845">
@@ -29611,7 +29611,7 @@
     </row>
     <row r="5851">
       <c r="A5851">
-        <v>87.93362418358827</v>
+        <v>87.93362418358826</v>
       </c>
     </row>
     <row r="5852">
@@ -29636,7 +29636,7 @@
     </row>
     <row r="5856">
       <c r="A5856">
-        <v>88.61570052916621</v>
+        <v>88.6157005291662</v>
       </c>
     </row>
     <row r="5857">
@@ -29651,7 +29651,7 @@
     </row>
     <row r="5859">
       <c r="A5859">
-        <v>83.13357782251696</v>
+        <v>83.13357782251695</v>
       </c>
     </row>
     <row r="5860">
@@ -29701,7 +29701,7 @@
     </row>
     <row r="5869">
       <c r="A5869">
-        <v>86.77769494664499</v>
+        <v>86.77769494664498</v>
       </c>
     </row>
     <row r="5870">
@@ -29826,7 +29826,7 @@
     </row>
     <row r="5894">
       <c r="A5894">
-        <v>89.26407731614386</v>
+        <v>89.26407731614385</v>
       </c>
     </row>
     <row r="5895">
@@ -29896,7 +29896,7 @@
     </row>
     <row r="5908">
       <c r="A5908">
-        <v>89.5635001169285</v>
+        <v>89.56350011692849</v>
       </c>
     </row>
     <row r="5909">
@@ -29971,7 +29971,7 @@
     </row>
     <row r="5923">
       <c r="A5923">
-        <v>81.82180222812409</v>
+        <v>81.82180222812408</v>
       </c>
     </row>
     <row r="5924">
@@ -29996,12 +29996,12 @@
     </row>
     <row r="5928">
       <c r="A5928">
-        <v>90.06006600526762</v>
+        <v>90.06006600526761</v>
       </c>
     </row>
     <row r="5929">
       <c r="A5929">
-        <v>88.77322054002426</v>
+        <v>88.77322054002425</v>
       </c>
     </row>
     <row r="5930">
@@ -30081,7 +30081,7 @@
     </row>
     <row r="5945">
       <c r="A5945">
-        <v>87.2953851121566</v>
+        <v>87.29538511215659</v>
       </c>
     </row>
     <row r="5946">
@@ -30211,7 +30211,7 @@
     </row>
     <row r="5971">
       <c r="A5971">
-        <v>103.2315184254283</v>
+        <v>103.2315184254282</v>
       </c>
     </row>
     <row r="5972">
@@ -30271,7 +30271,7 @@
     </row>
     <row r="5983">
       <c r="A5983">
-        <v>88.81832400929712</v>
+        <v>88.81832400929711</v>
       </c>
     </row>
     <row r="5984">
@@ -30491,7 +30491,7 @@
     </row>
     <row r="6027">
       <c r="A6027">
-        <v>88.82088810476751</v>
+        <v>88.8208881047675</v>
       </c>
     </row>
     <row r="6028">
@@ -30566,7 +30566,7 @@
     </row>
     <row r="6042">
       <c r="A6042">
-        <v>89.86091237276195</v>
+        <v>89.86091237276194</v>
       </c>
     </row>
     <row r="6043">
@@ -30591,7 +30591,7 @@
     </row>
     <row r="6047">
       <c r="A6047">
-        <v>86.10171030271386</v>
+        <v>86.10171030271385</v>
       </c>
     </row>
     <row r="6048">
@@ -30601,7 +30601,7 @@
     </row>
     <row r="6049">
       <c r="A6049">
-        <v>90.31031082217263</v>
+        <v>90.31031082217262</v>
       </c>
     </row>
     <row r="6050">
@@ -30756,7 +30756,7 @@
     </row>
     <row r="6080">
       <c r="A6080">
-        <v>95.65400505564134</v>
+        <v>95.65400505564133</v>
       </c>
     </row>
     <row r="6081">
@@ -30776,7 +30776,7 @@
     </row>
     <row r="6084">
       <c r="A6084">
-        <v>94.20012047306094</v>
+        <v>94.20012047306093</v>
       </c>
     </row>
     <row r="6085">
@@ -30791,7 +30791,7 @@
     </row>
     <row r="6087">
       <c r="A6087">
-        <v>90.40206289513633</v>
+        <v>90.40206289513632</v>
       </c>
     </row>
     <row r="6088">
@@ -30926,7 +30926,7 @@
     </row>
     <row r="6114">
       <c r="A6114">
-        <v>94.22022909183986</v>
+        <v>94.22022909183985</v>
       </c>
     </row>
     <row r="6115">
@@ -31186,7 +31186,7 @@
     </row>
     <row r="6166">
       <c r="A6166">
-        <v>93.58090143469129</v>
+        <v>93.58090143469128</v>
       </c>
     </row>
     <row r="6167">
@@ -31231,7 +31231,7 @@
     </row>
     <row r="6175">
       <c r="A6175">
-        <v>94.37875676189231</v>
+        <v>94.3787567618923</v>
       </c>
     </row>
     <row r="6176">
@@ -31251,7 +31251,7 @@
     </row>
     <row r="6179">
       <c r="A6179">
-        <v>95.10094628918228</v>
+        <v>95.10094628918227</v>
       </c>
     </row>
     <row r="6180">
@@ -31301,7 +31301,7 @@
     </row>
     <row r="6189">
       <c r="A6189">
-        <v>90.31291288145926</v>
+        <v>90.31291288145925</v>
       </c>
     </row>
     <row r="6190">
@@ -31316,7 +31316,7 @@
     </row>
     <row r="6192">
       <c r="A6192">
-        <v>87.7631393768142</v>
+        <v>87.76313937681419</v>
       </c>
     </row>
     <row r="6193">
@@ -31476,7 +31476,7 @@
     </row>
     <row r="6224">
       <c r="A6224">
-        <v>85.29288427267044</v>
+        <v>85.29288427267043</v>
       </c>
     </row>
     <row r="6225">
@@ -31536,12 +31536,12 @@
     </row>
     <row r="6236">
       <c r="A6236">
-        <v>82.79602870485842</v>
+        <v>82.79602870485841</v>
       </c>
     </row>
     <row r="6237">
       <c r="A6237">
-        <v>83.9542957126391</v>
+        <v>83.95429571263909</v>
       </c>
     </row>
     <row r="6238">
@@ -31606,7 +31606,7 @@
     </row>
     <row r="6250">
       <c r="A6250">
-        <v>82.490732995918</v>
+        <v>82.49073299591799</v>
       </c>
     </row>
     <row r="6251">
@@ -31866,7 +31866,7 @@
     </row>
     <row r="6302">
       <c r="A6302">
-        <v>98.83390014987234</v>
+        <v>98.83390014987233</v>
       </c>
     </row>
     <row r="6303">
@@ -32246,7 +32246,7 @@
     </row>
     <row r="6378">
       <c r="A6378">
-        <v>91.59921686354925</v>
+        <v>91.59921686354924</v>
       </c>
     </row>
     <row r="6379">
@@ -32271,7 +32271,7 @@
     </row>
     <row r="6383">
       <c r="A6383">
-        <v>92.66879881019627</v>
+        <v>92.66879881019626</v>
       </c>
     </row>
     <row r="6384">
@@ -32336,7 +32336,7 @@
     </row>
     <row r="6396">
       <c r="A6396">
-        <v>92.54813935426761</v>
+        <v>92.5481393542676</v>
       </c>
     </row>
     <row r="6397">
@@ -32491,7 +32491,7 @@
     </row>
     <row r="6427">
       <c r="A6427">
-        <v>88.96191362069934</v>
+        <v>88.96191362069933</v>
       </c>
     </row>
     <row r="6428">
@@ -32536,7 +32536,7 @@
     </row>
     <row r="6436">
       <c r="A6436">
-        <v>87.46702737914301</v>
+        <v>87.467027379143</v>
       </c>
     </row>
     <row r="6437">
@@ -32556,12 +32556,12 @@
     </row>
     <row r="6440">
       <c r="A6440">
-        <v>84.55223713915054</v>
+        <v>84.55223713915053</v>
       </c>
     </row>
     <row r="6441">
       <c r="A6441">
-        <v>91.74380052646932</v>
+        <v>91.74380052646931</v>
       </c>
     </row>
     <row r="6442">
@@ -32686,7 +32686,7 @@
     </row>
     <row r="6466">
       <c r="A6466">
-        <v>80.01329261421842</v>
+        <v>80.01329261421841</v>
       </c>
     </row>
     <row r="6467">
@@ -32711,7 +32711,7 @@
     </row>
     <row r="6471">
       <c r="A6471">
-        <v>88.30905328667483</v>
+        <v>88.30905328667482</v>
       </c>
     </row>
     <row r="6472">
@@ -32856,12 +32856,12 @@
     </row>
     <row r="6500">
       <c r="A6500">
-        <v>91.38433249561975</v>
+        <v>91.38433249561974</v>
       </c>
     </row>
     <row r="6501">
       <c r="A6501">
-        <v>88.46271596092871</v>
+        <v>88.4627159609287</v>
       </c>
     </row>
     <row r="6502">
@@ -33026,7 +33026,7 @@
     </row>
     <row r="6534">
       <c r="A6534">
-        <v>89.71183432530008</v>
+        <v>89.71183432530007</v>
       </c>
     </row>
     <row r="6535">
@@ -33056,7 +33056,7 @@
     </row>
     <row r="6540">
       <c r="A6540">
-        <v>86.06291785197846</v>
+        <v>86.06291785197845</v>
       </c>
     </row>
     <row r="6541">
@@ -33091,7 +33091,7 @@
     </row>
     <row r="6547">
       <c r="A6547">
-        <v>87.59097666298131</v>
+        <v>87.5909766629813</v>
       </c>
     </row>
     <row r="6548">
@@ -33221,7 +33221,7 @@
     </row>
     <row r="6573">
       <c r="A6573">
-        <v>89.7465283490339</v>
+        <v>89.74652834903389</v>
       </c>
     </row>
     <row r="6574">
@@ -33361,7 +33361,7 @@
     </row>
     <row r="6601">
       <c r="A6601">
-        <v>83.1493546296385</v>
+        <v>83.14935462963849</v>
       </c>
     </row>
     <row r="6602">
@@ -33406,7 +33406,7 @@
     </row>
     <row r="6610">
       <c r="A6610">
-        <v>89.62031265223907</v>
+        <v>89.62031265223906</v>
       </c>
     </row>
     <row r="6611">
@@ -33501,7 +33501,7 @@
     </row>
     <row r="6629">
       <c r="A6629">
-        <v>91.48614738290434</v>
+        <v>91.48614738290433</v>
       </c>
     </row>
     <row r="6630">
@@ -33596,7 +33596,7 @@
     </row>
     <row r="6648">
       <c r="A6648">
-        <v>91.51601605629377</v>
+        <v>91.51601605629376</v>
       </c>
     </row>
     <row r="6649">
@@ -33626,7 +33626,7 @@
     </row>
     <row r="6654">
       <c r="A6654">
-        <v>89.90086516799291</v>
+        <v>89.9008651679929</v>
       </c>
     </row>
     <row r="6655">
@@ -33781,7 +33781,7 @@
     </row>
     <row r="6685">
       <c r="A6685">
-        <v>91.43591293135386</v>
+        <v>91.43591293135385</v>
       </c>
     </row>
     <row r="6686">
@@ -33911,7 +33911,7 @@
     </row>
     <row r="6711">
       <c r="A6711">
-        <v>82.08479097639651</v>
+        <v>82.0847909763965</v>
       </c>
     </row>
     <row r="6712">
@@ -33931,7 +33931,7 @@
     </row>
     <row r="6715">
       <c r="A6715">
-        <v>100.4749581773855</v>
+        <v>100.4749581773854</v>
       </c>
     </row>
     <row r="6716">
@@ -34256,7 +34256,7 @@
     </row>
     <row r="6780">
       <c r="A6780">
-        <v>89.95022226689783</v>
+        <v>89.95022226689782</v>
       </c>
     </row>
     <row r="6781">
@@ -34276,7 +34276,7 @@
     </row>
     <row r="6784">
       <c r="A6784">
-        <v>89.48763479764475</v>
+        <v>89.48763479764474</v>
       </c>
     </row>
     <row r="6785">
@@ -34436,7 +34436,7 @@
     </row>
     <row r="6816">
       <c r="A6816">
-        <v>98.77909606993129</v>
+        <v>98.77909606993128</v>
       </c>
     </row>
     <row r="6817">
@@ -34496,12 +34496,12 @@
     </row>
     <row r="6828">
       <c r="A6828">
-        <v>89.20129711920203</v>
+        <v>89.20129711920202</v>
       </c>
     </row>
     <row r="6829">
       <c r="A6829">
-        <v>92.58392365801628</v>
+        <v>92.58392365801627</v>
       </c>
     </row>
     <row r="6830">
@@ -34631,7 +34631,7 @@
     </row>
     <row r="6855">
       <c r="A6855">
-        <v>102.6800421623614</v>
+        <v>102.6800421623613</v>
       </c>
     </row>
     <row r="6856">
@@ -34701,7 +34701,7 @@
     </row>
     <row r="6869">
       <c r="A6869">
-        <v>88.06721246838706</v>
+        <v>88.06721246838705</v>
       </c>
     </row>
     <row r="6870">
@@ -34796,7 +34796,7 @@
     </row>
     <row r="6888">
       <c r="A6888">
-        <v>88.70726797380407</v>
+        <v>88.70726797380406</v>
       </c>
     </row>
     <row r="6889">
@@ -35081,7 +35081,7 @@
     </row>
     <row r="6945">
       <c r="A6945">
-        <v>90.13200436636672</v>
+        <v>90.13200436636671</v>
       </c>
     </row>
     <row r="6946">
@@ -35146,7 +35146,7 @@
     </row>
     <row r="6958">
       <c r="A6958">
-        <v>90.29809395854601</v>
+        <v>90.298093958546</v>
       </c>
     </row>
     <row r="6959">
@@ -35191,7 +35191,7 @@
     </row>
     <row r="6967">
       <c r="A6967">
-        <v>89.59604668543445</v>
+        <v>89.59604668543444</v>
       </c>
     </row>
     <row r="6968">
@@ -35206,7 +35206,7 @@
     </row>
     <row r="6970">
       <c r="A6970">
-        <v>88.23553623737944</v>
+        <v>88.23553623737943</v>
       </c>
     </row>
     <row r="6971">
@@ -35371,7 +35371,7 @@
     </row>
     <row r="7003">
       <c r="A7003">
-        <v>87.98895595992723</v>
+        <v>87.98895595992722</v>
       </c>
     </row>
     <row r="7004">
@@ -35466,7 +35466,7 @@
     </row>
     <row r="7022">
       <c r="A7022">
-        <v>90.50740170669504</v>
+        <v>90.50740170669503</v>
       </c>
     </row>
     <row r="7023">
@@ -35591,7 +35591,7 @@
     </row>
     <row r="7047">
       <c r="A7047">
-        <v>88.35008754095397</v>
+        <v>88.35008754095396</v>
       </c>
     </row>
     <row r="7048">
@@ -35636,7 +35636,7 @@
     </row>
     <row r="7056">
       <c r="A7056">
-        <v>90.9528924073251</v>
+        <v>90.95289240732509</v>
       </c>
     </row>
     <row r="7057">
@@ -35661,7 +35661,7 @@
     </row>
     <row r="7061">
       <c r="A7061">
-        <v>87.79393937478641</v>
+        <v>87.7939393747864</v>
       </c>
     </row>
     <row r="7062">
@@ -35691,7 +35691,7 @@
     </row>
     <row r="7067">
       <c r="A7067">
-        <v>88.94156167742816</v>
+        <v>88.94156167742815</v>
       </c>
     </row>
     <row r="7068">
@@ -35701,7 +35701,7 @@
     </row>
     <row r="7069">
       <c r="A7069">
-        <v>95.48848537215145</v>
+        <v>95.48848537215144</v>
       </c>
     </row>
     <row r="7070">
@@ -35751,7 +35751,7 @@
     </row>
     <row r="7079">
       <c r="A7079">
-        <v>78.40606069001746</v>
+        <v>78.40606069001745</v>
       </c>
     </row>
     <row r="7080">
@@ -35781,7 +35781,7 @@
     </row>
     <row r="7085">
       <c r="A7085">
-        <v>85.36374161165414</v>
+        <v>85.36374161165413</v>
       </c>
     </row>
     <row r="7086">
@@ -35876,7 +35876,7 @@
     </row>
     <row r="7104">
       <c r="A7104">
-        <v>93.9287487370266</v>
+        <v>93.92874873702659</v>
       </c>
     </row>
     <row r="7105">
@@ -36196,7 +36196,7 @@
     </row>
     <row r="7168">
       <c r="A7168">
-        <v>93.13419211241804</v>
+        <v>93.13419211241803</v>
       </c>
     </row>
     <row r="7169">
@@ -36211,7 +36211,7 @@
     </row>
     <row r="7171">
       <c r="A7171">
-        <v>87.29384062957927</v>
+        <v>87.29384062957926</v>
       </c>
     </row>
     <row r="7172">
@@ -36636,7 +36636,7 @@
     </row>
     <row r="7256">
       <c r="A7256">
-        <v>90.31557200845919</v>
+        <v>90.31557200845918</v>
       </c>
     </row>
     <row r="7257">
@@ -36726,7 +36726,7 @@
     </row>
     <row r="7274">
       <c r="A7274">
-        <v>87.54575819703067</v>
+        <v>87.54575819703066</v>
       </c>
     </row>
     <row r="7275">
@@ -36761,7 +36761,7 @@
     </row>
     <row r="7281">
       <c r="A7281">
-        <v>95.69329318370149</v>
+        <v>95.69329318370148</v>
       </c>
     </row>
     <row r="7282">
@@ -36866,7 +36866,7 @@
     </row>
     <row r="7302">
       <c r="A7302">
-        <v>93.48698738448339</v>
+        <v>93.48698738448338</v>
       </c>
     </row>
     <row r="7303">
@@ -37181,7 +37181,7 @@
     </row>
     <row r="7365">
       <c r="A7365">
-        <v>96.43834799955089</v>
+        <v>96.43834799955088</v>
       </c>
     </row>
     <row r="7366">
@@ -37271,7 +37271,7 @@
     </row>
     <row r="7383">
       <c r="A7383">
-        <v>88.63755844241607</v>
+        <v>88.63755844241606</v>
       </c>
     </row>
     <row r="7384">
@@ -37281,7 +37281,7 @@
     </row>
     <row r="7385">
       <c r="A7385">
-        <v>89.18921660543433</v>
+        <v>89.18921660543432</v>
       </c>
     </row>
     <row r="7386">
@@ -37336,7 +37336,7 @@
     </row>
     <row r="7396">
       <c r="A7396">
-        <v>96.31083141338876</v>
+        <v>96.31083141338875</v>
       </c>
     </row>
     <row r="7397">
@@ -37586,7 +37586,7 @@
     </row>
     <row r="7446">
       <c r="A7446">
-        <v>79.99923183160225</v>
+        <v>79.99923183160224</v>
       </c>
     </row>
     <row r="7447">
@@ -37616,7 +37616,7 @@
     </row>
     <row r="7452">
       <c r="A7452">
-        <v>78.61437029581119</v>
+        <v>78.61437029581118</v>
       </c>
     </row>
     <row r="7453">
@@ -37646,7 +37646,7 @@
     </row>
     <row r="7458">
       <c r="A7458">
-        <v>88.76652976393064</v>
+        <v>88.76652976393063</v>
       </c>
     </row>
     <row r="7459">
@@ -37806,7 +37806,7 @@
     </row>
     <row r="7490">
       <c r="A7490">
-        <v>87.37116594206096</v>
+        <v>87.37116594206095</v>
       </c>
     </row>
     <row r="7491">
@@ -37946,7 +37946,7 @@
     </row>
     <row r="7518">
       <c r="A7518">
-        <v>88.80138060582461</v>
+        <v>88.8013806058246</v>
       </c>
     </row>
     <row r="7519">
@@ -38011,7 +38011,7 @@
     </row>
     <row r="7531">
       <c r="A7531">
-        <v>91.27363017168725</v>
+        <v>91.27363017168724</v>
       </c>
     </row>
     <row r="7532">
@@ -38136,7 +38136,7 @@
     </row>
     <row r="7556">
       <c r="A7556">
-        <v>92.68240030147472</v>
+        <v>92.68240030147471</v>
       </c>
     </row>
     <row r="7557">
@@ -38201,7 +38201,7 @@
     </row>
     <row r="7569">
       <c r="A7569">
-        <v>89.64750225491405</v>
+        <v>89.64750225491404</v>
       </c>
     </row>
     <row r="7570">
@@ -38251,7 +38251,7 @@
     </row>
     <row r="7579">
       <c r="A7579">
-        <v>86.85963141877915</v>
+        <v>86.85963141877914</v>
       </c>
     </row>
     <row r="7580">
@@ -38476,7 +38476,7 @@
     </row>
     <row r="7624">
       <c r="A7624">
-        <v>97.44611856469543</v>
+        <v>97.44611856469542</v>
       </c>
     </row>
     <row r="7625">
@@ -38551,7 +38551,7 @@
     </row>
     <row r="7639">
       <c r="A7639">
-        <v>90.01899040147949</v>
+        <v>90.01899040147948</v>
       </c>
     </row>
     <row r="7640">
@@ -38581,7 +38581,7 @@
     </row>
     <row r="7645">
       <c r="A7645">
-        <v>91.76076904307188</v>
+        <v>91.76076904307187</v>
       </c>
     </row>
     <row r="7646">
@@ -38811,7 +38811,7 @@
     </row>
     <row r="7691">
       <c r="A7691">
-        <v>92.80289226642447</v>
+        <v>92.80289226642446</v>
       </c>
     </row>
     <row r="7692">
@@ -38911,7 +38911,7 @@
     </row>
     <row r="7711">
       <c r="A7711">
-        <v>86.60117726695484</v>
+        <v>86.60117726695483</v>
       </c>
     </row>
     <row r="7712">
@@ -38956,7 +38956,7 @@
     </row>
     <row r="7720">
       <c r="A7720">
-        <v>85.2521090596584</v>
+        <v>85.25210905965839</v>
       </c>
     </row>
     <row r="7721">
@@ -39306,7 +39306,7 @@
     </row>
     <row r="7790">
       <c r="A7790">
-        <v>95.32926589427567</v>
+        <v>95.32926589427566</v>
       </c>
     </row>
     <row r="7791">
@@ -39421,7 +39421,7 @@
     </row>
     <row r="7813">
       <c r="A7813">
-        <v>89.03444802741817</v>
+        <v>89.03444802741816</v>
       </c>
     </row>
     <row r="7814">
@@ -39456,7 +39456,7 @@
     </row>
     <row r="7820">
       <c r="A7820">
-        <v>92.31942164884291</v>
+        <v>92.3194216488429</v>
       </c>
     </row>
     <row r="7821">
@@ -39616,7 +39616,7 @@
     </row>
     <row r="7852">
       <c r="A7852">
-        <v>96.70598014826607</v>
+        <v>96.70598014826606</v>
       </c>
     </row>
     <row r="7853">
@@ -39691,7 +39691,7 @@
     </row>
     <row r="7867">
       <c r="A7867">
-        <v>83.30642550838977</v>
+        <v>83.30642550838976</v>
       </c>
     </row>
     <row r="7868">
@@ -39766,7 +39766,7 @@
     </row>
     <row r="7882">
       <c r="A7882">
-        <v>90.5613593957217</v>
+        <v>90.56135939572169</v>
       </c>
     </row>
     <row r="7883">
@@ -39971,7 +39971,7 @@
     </row>
     <row r="7923">
       <c r="A7923">
-        <v>95.34588632614342</v>
+        <v>95.34588632614341</v>
       </c>
     </row>
     <row r="7924">
@@ -39991,7 +39991,7 @@
     </row>
     <row r="7927">
       <c r="A7927">
-        <v>93.37849288204095</v>
+        <v>93.37849288204094</v>
       </c>
     </row>
     <row r="7928">
@@ -40116,12 +40116,12 @@
     </row>
     <row r="7952">
       <c r="A7952">
-        <v>81.48263067223265</v>
+        <v>81.48263067223264</v>
       </c>
     </row>
     <row r="7953">
       <c r="A7953">
-        <v>90.7702755129687</v>
+        <v>90.77027551296869</v>
       </c>
     </row>
     <row r="7954">
@@ -40176,7 +40176,7 @@
     </row>
     <row r="7964">
       <c r="A7964">
-        <v>89.55865115368997</v>
+        <v>89.55865115368996</v>
       </c>
     </row>
     <row r="7965">
@@ -40196,7 +40196,7 @@
     </row>
     <row r="7968">
       <c r="A7968">
-        <v>91.07880709819384</v>
+        <v>91.07880709819383</v>
       </c>
     </row>
     <row r="7969">
@@ -40251,7 +40251,7 @@
     </row>
     <row r="7979">
       <c r="A7979">
-        <v>92.79695288067065</v>
+        <v>92.79695288067064</v>
       </c>
     </row>
     <row r="7980">
@@ -40351,7 +40351,7 @@
     </row>
     <row r="7999">
       <c r="A7999">
-        <v>89.69294735588935</v>
+        <v>89.69294735588934</v>
       </c>
     </row>
     <row r="8000">
@@ -40636,7 +40636,7 @@
     </row>
     <row r="8056">
       <c r="A8056">
-        <v>88.52942821014158</v>
+        <v>88.52942821014157</v>
       </c>
     </row>
     <row r="8057">
@@ -40691,7 +40691,7 @@
     </row>
     <row r="8067">
       <c r="A8067">
-        <v>95.02885726974076</v>
+        <v>95.02885726974075</v>
       </c>
     </row>
     <row r="8068">
@@ -40746,7 +40746,7 @@
     </row>
     <row r="8078">
       <c r="A8078">
-        <v>85.94829390203717</v>
+        <v>85.94829390203716</v>
       </c>
     </row>
     <row r="8079">
@@ -41091,7 +41091,7 @@
     </row>
     <row r="8147">
       <c r="A8147">
-        <v>90.87684202543989</v>
+        <v>90.87684202543988</v>
       </c>
     </row>
     <row r="8148">
@@ -41426,7 +41426,7 @@
     </row>
     <row r="8214">
       <c r="A8214">
-        <v>90.25852435614461</v>
+        <v>90.2585243561446</v>
       </c>
     </row>
     <row r="8215">
@@ -41621,12 +41621,12 @@
     </row>
     <row r="8253">
       <c r="A8253">
-        <v>83.68549421705635</v>
+        <v>83.68549421705634</v>
       </c>
     </row>
     <row r="8254">
       <c r="A8254">
-        <v>89.27989194902924</v>
+        <v>89.27989194902923</v>
       </c>
     </row>
     <row r="8255">
@@ -41711,7 +41711,7 @@
     </row>
     <row r="8271">
       <c r="A8271">
-        <v>89.35927788576061</v>
+        <v>89.3592778857606</v>
       </c>
     </row>
     <row r="8272">
@@ -41751,7 +41751,7 @@
     </row>
     <row r="8279">
       <c r="A8279">
-        <v>88.51194812859635</v>
+        <v>88.51194812859634</v>
       </c>
     </row>
     <row r="8280">
@@ -42021,7 +42021,7 @@
     </row>
     <row r="8333">
       <c r="A8333">
-        <v>97.01406700817194</v>
+        <v>97.01406700817193</v>
       </c>
     </row>
     <row r="8334">
@@ -42151,7 +42151,7 @@
     </row>
     <row r="8359">
       <c r="A8359">
-        <v>90.96371482237385</v>
+        <v>90.96371482237384</v>
       </c>
     </row>
     <row r="8360">
@@ -42161,7 +42161,7 @@
     </row>
     <row r="8361">
       <c r="A8361">
-        <v>96.72217907609849</v>
+        <v>96.72217907609848</v>
       </c>
     </row>
     <row r="8362">
@@ -42426,7 +42426,7 @@
     </row>
     <row r="8414">
       <c r="A8414">
-        <v>94.63656654280509</v>
+        <v>94.63656654280508</v>
       </c>
     </row>
     <row r="8415">
@@ -42581,7 +42581,7 @@
     </row>
     <row r="8445">
       <c r="A8445">
-        <v>77.32373706375032</v>
+        <v>77.32373706375031</v>
       </c>
     </row>
     <row r="8446">
@@ -42876,7 +42876,7 @@
     </row>
     <row r="8504">
       <c r="A8504">
-        <v>93.02242901301536</v>
+        <v>93.02242901301535</v>
       </c>
     </row>
     <row r="8505">
@@ -42916,7 +42916,7 @@
     </row>
     <row r="8512">
       <c r="A8512">
-        <v>90.61580045827157</v>
+        <v>90.61580045827156</v>
       </c>
     </row>
     <row r="8513">
@@ -42941,12 +42941,12 @@
     </row>
     <row r="8517">
       <c r="A8517">
-        <v>93.37147037583461</v>
+        <v>93.3714703758346</v>
       </c>
     </row>
     <row r="8518">
       <c r="A8518">
-        <v>88.97157923664175</v>
+        <v>88.97157923664174</v>
       </c>
     </row>
     <row r="8519">
@@ -43001,7 +43001,7 @@
     </row>
     <row r="8529">
       <c r="A8529">
-        <v>88.03490268861494</v>
+        <v>88.03490268861493</v>
       </c>
     </row>
     <row r="8530">
@@ -43111,7 +43111,7 @@
     </row>
     <row r="8551">
       <c r="A8551">
-        <v>91.20940539949334</v>
+        <v>91.20940539949333</v>
       </c>
     </row>
     <row r="8552">
@@ -43296,7 +43296,7 @@
     </row>
     <row r="8588">
       <c r="A8588">
-        <v>97.88022666964911</v>
+        <v>97.8802266696491</v>
       </c>
     </row>
     <row r="8589">
@@ -43381,7 +43381,7 @@
     </row>
     <row r="8605">
       <c r="A8605">
-        <v>90.41301071020745</v>
+        <v>90.41301071020744</v>
       </c>
     </row>
     <row r="8606">
@@ -43421,7 +43421,7 @@
     </row>
     <row r="8613">
       <c r="A8613">
-        <v>91.55559245475151</v>
+        <v>91.5555924547515</v>
       </c>
     </row>
     <row r="8614">
@@ -43671,7 +43671,7 @@
     </row>
     <row r="8663">
       <c r="A8663">
-        <v>87.34305868224728</v>
+        <v>87.34305868224727</v>
       </c>
     </row>
     <row r="8664">
@@ -43721,7 +43721,7 @@
     </row>
     <row r="8673">
       <c r="A8673">
-        <v>87.01699874606914</v>
+        <v>87.01699874606913</v>
       </c>
     </row>
     <row r="8674">
@@ -43771,7 +43771,7 @@
     </row>
     <row r="8683">
       <c r="A8683">
-        <v>90.72482872182818</v>
+        <v>90.72482872182817</v>
       </c>
     </row>
     <row r="8684">
@@ -43806,7 +43806,7 @@
     </row>
     <row r="8690">
       <c r="A8690">
-        <v>83.24302096476959</v>
+        <v>83.24302096476958</v>
       </c>
     </row>
     <row r="8691">
@@ -43861,7 +43861,7 @@
     </row>
     <row r="8701">
       <c r="A8701">
-        <v>85.40650119535295</v>
+        <v>85.40650119535294</v>
       </c>
     </row>
     <row r="8702">
@@ -43906,7 +43906,7 @@
     </row>
     <row r="8710">
       <c r="A8710">
-        <v>89.29721187827497</v>
+        <v>89.29721187827496</v>
       </c>
     </row>
     <row r="8711">
@@ -43936,7 +43936,7 @@
     </row>
     <row r="8716">
       <c r="A8716">
-        <v>89.8929791042597</v>
+        <v>89.89297910425969</v>
       </c>
     </row>
     <row r="8717">
@@ -44231,7 +44231,7 @@
     </row>
     <row r="8775">
       <c r="A8775">
-        <v>95.50524153464122</v>
+        <v>95.50524153464121</v>
       </c>
     </row>
     <row r="8776">
@@ -44746,7 +44746,7 @@
     </row>
     <row r="8878">
       <c r="A8878">
-        <v>83.83304532619592</v>
+        <v>83.83304532619591</v>
       </c>
     </row>
     <row r="8879">
@@ -44821,7 +44821,7 @@
     </row>
     <row r="8893">
       <c r="A8893">
-        <v>91.49637091942167</v>
+        <v>91.49637091942166</v>
       </c>
     </row>
     <row r="8894">
@@ -44931,7 +44931,7 @@
     </row>
     <row r="8915">
       <c r="A8915">
-        <v>88.86108458060996</v>
+        <v>88.86108458060995</v>
       </c>
     </row>
     <row r="8916">
@@ -44966,7 +44966,7 @@
     </row>
     <row r="8922">
       <c r="A8922">
-        <v>92.93337396541232</v>
+        <v>92.93337396541231</v>
       </c>
     </row>
     <row r="8923">
@@ -45106,7 +45106,7 @@
     </row>
     <row r="8950">
       <c r="A8950">
-        <v>91.0213673157832</v>
+        <v>91.02136731578319</v>
       </c>
     </row>
     <row r="8951">
@@ -45141,7 +45141,7 @@
     </row>
     <row r="8957">
       <c r="A8957">
-        <v>88.71095553705816</v>
+        <v>88.71095553705815</v>
       </c>
     </row>
     <row r="8958">
@@ -45196,7 +45196,7 @@
     </row>
     <row r="8968">
       <c r="A8968">
-        <v>85.38398063749141</v>
+        <v>85.3839806374914</v>
       </c>
     </row>
     <row r="8969">
@@ -45211,7 +45211,7 @@
     </row>
     <row r="8971">
       <c r="A8971">
-        <v>87.17843411713938</v>
+        <v>87.17843411713937</v>
       </c>
     </row>
     <row r="8972">
@@ -45406,7 +45406,7 @@
     </row>
     <row r="9010">
       <c r="A9010">
-        <v>87.58361442821114</v>
+        <v>87.58361442821113</v>
       </c>
     </row>
     <row r="9011">
@@ -45456,7 +45456,7 @@
     </row>
     <row r="9020">
       <c r="A9020">
-        <v>92.19803414048892</v>
+        <v>92.19803414048891</v>
       </c>
     </row>
     <row r="9021">
@@ -45491,7 +45491,7 @@
     </row>
     <row r="9027">
       <c r="A9027">
-        <v>89.01972503552715</v>
+        <v>89.01972503552714</v>
       </c>
     </row>
     <row r="9028">
@@ -45541,12 +45541,12 @@
     </row>
     <row r="9037">
       <c r="A9037">
-        <v>84.19088925267315</v>
+        <v>84.19088925267314</v>
       </c>
     </row>
     <row r="9038">
       <c r="A9038">
-        <v>88.04592108471744</v>
+        <v>88.04592108471743</v>
       </c>
     </row>
     <row r="9039">
@@ -45586,7 +45586,7 @@
     </row>
     <row r="9046">
       <c r="A9046">
-        <v>82.5273332568753</v>
+        <v>82.52733325687529</v>
       </c>
     </row>
     <row r="9047">
@@ -45626,7 +45626,7 @@
     </row>
     <row r="9054">
       <c r="A9054">
-        <v>88.45901822737928</v>
+        <v>88.45901822737927</v>
       </c>
     </row>
     <row r="9055">
@@ -45746,7 +45746,7 @@
     </row>
     <row r="9078">
       <c r="A9078">
-        <v>99.94119293881379</v>
+        <v>99.94119293881378</v>
       </c>
     </row>
     <row r="9079">
@@ -45776,7 +45776,7 @@
     </row>
     <row r="9084">
       <c r="A9084">
-        <v>95.46059739465945</v>
+        <v>95.46059739465944</v>
       </c>
     </row>
     <row r="9085">
@@ -45856,7 +45856,7 @@
     </row>
     <row r="9100">
       <c r="A9100">
-        <v>87.84495046569811</v>
+        <v>87.8449504656981</v>
       </c>
     </row>
     <row r="9101">
@@ -46226,7 +46226,7 @@
     </row>
     <row r="9174">
       <c r="A9174">
-        <v>90.85819029478292</v>
+        <v>90.85819029478291</v>
       </c>
     </row>
     <row r="9175">
@@ -46366,7 +46366,7 @@
     </row>
     <row r="9202">
       <c r="A9202">
-        <v>86.54659823045319</v>
+        <v>86.54659823045318</v>
       </c>
     </row>
     <row r="9203">
@@ -46396,7 +46396,7 @@
     </row>
     <row r="9208">
       <c r="A9208">
-        <v>97.95451191301378</v>
+        <v>97.95451191301377</v>
       </c>
     </row>
     <row r="9209">
@@ -46571,7 +46571,7 @@
     </row>
     <row r="9243">
       <c r="A9243">
-        <v>83.44293551005004</v>
+        <v>83.44293551005003</v>
       </c>
     </row>
     <row r="9244">
@@ -46611,7 +46611,7 @@
     </row>
     <row r="9251">
       <c r="A9251">
-        <v>85.93314025211726</v>
+        <v>85.93314025211725</v>
       </c>
     </row>
     <row r="9252">
@@ -46696,7 +46696,7 @@
     </row>
     <row r="9268">
       <c r="A9268">
-        <v>95.46314256432378</v>
+        <v>95.46314256432377</v>
       </c>
     </row>
     <row r="9269">
@@ -46731,7 +46731,7 @@
     </row>
     <row r="9275">
       <c r="A9275">
-        <v>91.12136542485033</v>
+        <v>91.12136542485032</v>
       </c>
     </row>
     <row r="9276">
@@ -46826,7 +46826,7 @@
     </row>
     <row r="9294">
       <c r="A9294">
-        <v>87.06088881994018</v>
+        <v>87.06088881994017</v>
       </c>
     </row>
     <row r="9295">
@@ -46966,7 +46966,7 @@
     </row>
     <row r="9322">
       <c r="A9322">
-        <v>94.44716924556686</v>
+        <v>94.44716924556685</v>
       </c>
     </row>
     <row r="9323">
@@ -46976,7 +46976,7 @@
     </row>
     <row r="9324">
       <c r="A9324">
-        <v>93.83134013740416</v>
+        <v>93.83134013740415</v>
       </c>
     </row>
     <row r="9325">
@@ -47006,7 +47006,7 @@
     </row>
     <row r="9330">
       <c r="A9330">
-        <v>87.74565131471042</v>
+        <v>87.74565131471041</v>
       </c>
     </row>
     <row r="9331">
@@ -47016,7 +47016,7 @@
     </row>
     <row r="9332">
       <c r="A9332">
-        <v>92.3130982234995</v>
+        <v>92.31309822349949</v>
       </c>
     </row>
     <row r="9333">
@@ -47051,7 +47051,7 @@
     </row>
     <row r="9339">
       <c r="A9339">
-        <v>91.15670525099903</v>
+        <v>91.15670525099902</v>
       </c>
     </row>
     <row r="9340">
@@ -47141,7 +47141,7 @@
     </row>
     <row r="9357">
       <c r="A9357">
-        <v>100.2372653390022</v>
+        <v>100.2372653390021</v>
       </c>
     </row>
     <row r="9358">
@@ -47691,7 +47691,7 @@
     </row>
     <row r="9467">
       <c r="A9467">
-        <v>87.15645612598947</v>
+        <v>87.15645612598946</v>
       </c>
     </row>
     <row r="9468">
@@ -47706,7 +47706,7 @@
     </row>
     <row r="9470">
       <c r="A9470">
-        <v>82.50661522361664</v>
+        <v>82.50661522361663</v>
       </c>
     </row>
     <row r="9471">
@@ -47756,7 +47756,7 @@
     </row>
     <row r="9480">
       <c r="A9480">
-        <v>92.94710761873319</v>
+        <v>92.94710761873318</v>
       </c>
     </row>
     <row r="9481">
@@ -48051,7 +48051,7 @@
     </row>
     <row r="9539">
       <c r="A9539">
-        <v>90.39958594274926</v>
+        <v>90.39958594274925</v>
       </c>
     </row>
     <row r="9540">
@@ -48116,12 +48116,12 @@
     </row>
     <row r="9552">
       <c r="A9552">
-        <v>93.10543512079615</v>
+        <v>93.10543512079614</v>
       </c>
     </row>
     <row r="9553">
       <c r="A9553">
-        <v>88.79721110728976</v>
+        <v>88.79721110728975</v>
       </c>
     </row>
     <row r="9554">
@@ -48446,12 +48446,12 @@
     </row>
     <row r="9618">
       <c r="A9618">
-        <v>93.91332788881798</v>
+        <v>93.91332788881797</v>
       </c>
     </row>
     <row r="9619">
       <c r="A9619">
-        <v>97.12183836875875</v>
+        <v>97.12183836875874</v>
       </c>
     </row>
     <row r="9620">
@@ -48736,7 +48736,7 @@
     </row>
     <row r="9676">
       <c r="A9676">
-        <v>85.81882380461497</v>
+        <v>85.81882380461496</v>
       </c>
     </row>
     <row r="9677">
@@ -48801,7 +48801,7 @@
     </row>
     <row r="9689">
       <c r="A9689">
-        <v>92.9190156296547</v>
+        <v>92.91901562965469</v>
       </c>
     </row>
     <row r="9690">
@@ -49131,7 +49131,7 @@
     </row>
     <row r="9755">
       <c r="A9755">
-        <v>93.5887945767518</v>
+        <v>93.58879457675179</v>
       </c>
     </row>
     <row r="9756">
@@ -49416,7 +49416,7 @@
     </row>
     <row r="9812">
       <c r="A9812">
-        <v>85.58336405505357</v>
+        <v>85.58336405505356</v>
       </c>
     </row>
     <row r="9813">
@@ -49596,12 +49596,12 @@
     </row>
     <row r="9848">
       <c r="A9848">
-        <v>84.21151919480946</v>
+        <v>84.21151919480945</v>
       </c>
     </row>
     <row r="9849">
       <c r="A9849">
-        <v>95.87668742691236</v>
+        <v>95.87668742691235</v>
       </c>
     </row>
     <row r="9850">
@@ -49651,7 +49651,7 @@
     </row>
     <row r="9859">
       <c r="A9859">
-        <v>96.05296832256956</v>
+        <v>96.05296832256955</v>
       </c>
     </row>
     <row r="9860">
@@ -49691,7 +49691,7 @@
     </row>
     <row r="9867">
       <c r="A9867">
-        <v>90.57182187856967</v>
+        <v>90.57182187856966</v>
       </c>
     </row>
     <row r="9868">
@@ -49811,7 +49811,7 @@
     </row>
     <row r="9891">
       <c r="A9891">
-        <v>94.75588748502887</v>
+        <v>94.75588748502886</v>
       </c>
     </row>
     <row r="9892">
@@ -49891,7 +49891,7 @@
     </row>
     <row r="9907">
       <c r="A9907">
-        <v>80.97670261622776</v>
+        <v>80.97670261622775</v>
       </c>
     </row>
     <row r="9908">
@@ -49966,7 +49966,7 @@
     </row>
     <row r="9922">
       <c r="A9922">
-        <v>88.97166970903182</v>
+        <v>88.97166970903181</v>
       </c>
     </row>
     <row r="9923">
@@ -49986,7 +49986,7 @@
     </row>
     <row r="9926">
       <c r="A9926">
-        <v>93.68268071882307</v>
+        <v>93.68268071882306</v>
       </c>
     </row>
     <row r="9927">
@@ -50111,7 +50111,7 @@
     </row>
     <row r="9951">
       <c r="A9951">
-        <v>96.32586494172269</v>
+        <v>96.32586494172268</v>
       </c>
     </row>
     <row r="9952">
